--- a/data/(3,2)/W++/summary_by_file_odd_even_general.xlsx
+++ b/data/(3,2)/W++/summary_by_file_odd_even_general.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d28beaa99568fc0f/Documents/2-1/Project/data/(3^J2)/just_degree/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d28beaa99568fc0f/Documents/Project/data/(3^J2)/W^M^M/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_30DDB0B7D3105B40F7992211595ED87656CCA194" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B80286DB-F1CA-4FAE-9D29-9636D9C60678}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_0FD5F2ACD3A0D7699F392311595ED87656CCBD56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25250F49-9ECF-4B2C-92B5-A28BB92EADE9}"/>
   <bookViews>
-    <workbookView xWindow="-25950" yWindow="75" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,6 +125,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C200"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -451,13 +455,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.0599999999999996</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -471,13 +475,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.25</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -494,13 +498,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5.42</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.72</v>
+        <v>5.42</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -514,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>7.01</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.4</v>
+        <v>7.01</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -537,13 +541,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>17.98</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.4</v>
+        <v>17.98</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -557,13 +561,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>18.88</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.4</v>
+        <v>18.88</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -580,13 +584,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.73</v>
+        <v>16.5</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -600,13 +604,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>22.76</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.36</v>
+        <v>22.76</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -623,13 +627,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>36.04</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.45</v>
+        <v>36.04</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -643,19 +647,19 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.12</v>
+        <v>60.1</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23.18</v>
+        <v>60.1</v>
       </c>
       <c r="F11">
-        <v>9.4339622641509441E-2</v>
+        <v>0.53191489361702127</v>
       </c>
       <c r="G11">
-        <v>0.14893617021276601</v>
+        <v>0.50943396226415094</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -666,13 +670,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>86.57</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>23.95</v>
+        <v>86.57</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -686,13 +690,13 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>32.21</v>
+        <v>94</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -709,13 +713,13 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>85.38</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>25.22</v>
+        <v>85.38</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -729,13 +733,13 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>162.58000000000001</v>
       </c>
       <c r="D15">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>54.76</v>
+        <v>162.58000000000001</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -752,16 +756,16 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.1</v>
+        <v>159.34</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>46.69</v>
+        <v>159.34</v>
       </c>
       <c r="G16">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -772,19 +776,19 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.02</v>
+        <v>201.61</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>51.76</v>
+        <v>201.61</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.23214285714285721</v>
       </c>
       <c r="G17">
-        <v>3.7735849056603772E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -795,16 +799,16 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>225.83</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>46.41</v>
+        <v>225.83</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -815,13 +819,13 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>228.37</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>46.45</v>
+        <v>228.37</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -838,16 +842,16 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.03</v>
+        <v>289.04000000000002</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>66.41</v>
+        <v>289.04000000000002</v>
       </c>
       <c r="G20">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -858,19 +862,19 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.03</v>
+        <v>230.92</v>
       </c>
       <c r="D21">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>83.57</v>
+        <v>230.92</v>
       </c>
       <c r="F21">
-        <v>4.0816326530612242E-2</v>
+        <v>0.625</v>
       </c>
       <c r="G21">
-        <v>1.9607843137254902E-2</v>
+        <v>0.61538461538461542</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -881,16 +885,16 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.14000000000000001</v>
+        <v>283.33</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E22">
-        <v>71.33</v>
+        <v>283.33</v>
       </c>
       <c r="G22">
-        <v>0.14000000000000001</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -901,19 +905,19 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.08</v>
+        <v>349.04</v>
       </c>
       <c r="D23">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>83.39</v>
+        <v>349.04</v>
       </c>
       <c r="F23">
-        <v>2.2727272727272731E-2</v>
+        <v>0.17241379310344829</v>
       </c>
       <c r="G23">
-        <v>0.125</v>
+        <v>0.30952380952380948</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -924,16 +928,16 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.06</v>
+        <v>345.03</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>72.09</v>
+        <v>345.03</v>
       </c>
       <c r="G24">
-        <v>0.06</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -944,19 +948,19 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.06</v>
+        <v>349.14</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E25">
-        <v>74.36</v>
+        <v>349.14</v>
       </c>
       <c r="F25">
-        <v>5.2631578947368418E-2</v>
+        <v>0.38</v>
       </c>
       <c r="G25">
-        <v>6.9767441860465115E-2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -967,16 +971,16 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.19</v>
+        <v>291.07</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>87.81</v>
+        <v>291.07</v>
       </c>
       <c r="G26">
-        <v>0.19</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -987,19 +991,19 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.09</v>
+        <v>246.9</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>90.02</v>
+        <v>246.9</v>
       </c>
       <c r="F27">
-        <v>0.1</v>
+        <v>0.92727272727272725</v>
       </c>
       <c r="G27">
-        <v>0.08</v>
+        <v>0.84444444444444444</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1010,16 +1014,16 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.23</v>
+        <v>337.78</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E28">
-        <v>105.63</v>
+        <v>337.78</v>
       </c>
       <c r="G28">
-        <v>0.23</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1030,19 +1034,19 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>0.17</v>
+        <v>261.7</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>104.27</v>
+        <v>261.7</v>
       </c>
       <c r="F29">
-        <v>0.18367346938775511</v>
+        <v>0.84</v>
       </c>
       <c r="G29">
-        <v>0.15686274509803921</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1053,16 +1057,16 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.15</v>
+        <v>336.91</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E30">
-        <v>98.28</v>
+        <v>336.91</v>
       </c>
       <c r="G30">
-        <v>0.15</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1073,19 +1077,19 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.11</v>
+        <v>298.91000000000003</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>91.52</v>
+        <v>298.91000000000003</v>
       </c>
       <c r="F31">
-        <v>8.5106382978723402E-2</v>
+        <v>0.84313725490196079</v>
       </c>
       <c r="G31">
-        <v>0.13207547169811321</v>
+        <v>0.89795918367346939</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1096,16 +1100,16 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.2</v>
+        <v>319.72000000000003</v>
       </c>
       <c r="D32">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>126.1</v>
+        <v>319.72000000000003</v>
       </c>
       <c r="G32">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1116,19 +1120,19 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>0.36</v>
+        <v>280.83999999999997</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>130.87</v>
+        <v>280.83999999999997</v>
       </c>
       <c r="F33">
-        <v>0.35416666666666669</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="G33">
-        <v>0.36538461538461542</v>
+        <v>0.94545454545454544</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1139,16 +1143,16 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0.2</v>
+        <v>296.97000000000003</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>129.22999999999999</v>
+        <v>296.97000000000003</v>
       </c>
       <c r="G34">
-        <v>0.2</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1159,19 +1163,19 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.27</v>
+        <v>352.94</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E35">
-        <v>137.11000000000001</v>
+        <v>352.94</v>
       </c>
       <c r="F35">
-        <v>0.27083333333333331</v>
+        <v>0.92156862745098034</v>
       </c>
       <c r="G35">
-        <v>0.26923076923076922</v>
+        <v>0.91836734693877553</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1182,16 +1186,16 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>0.18</v>
+        <v>325.14</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>140.72999999999999</v>
+        <v>325.14</v>
       </c>
       <c r="G36">
-        <v>0.18</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1202,19 +1206,19 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>0.31</v>
+        <v>349.98</v>
       </c>
       <c r="D37">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>140.86000000000001</v>
+        <v>349.98</v>
       </c>
       <c r="F37">
-        <v>0.2978723404255319</v>
+        <v>0.88</v>
       </c>
       <c r="G37">
-        <v>0.32075471698113212</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1225,16 +1229,16 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0.32</v>
+        <v>350.16</v>
       </c>
       <c r="D38">
         <v>0.02</v>
       </c>
       <c r="E38">
-        <v>186.51</v>
+        <v>350.16</v>
       </c>
       <c r="G38">
-        <v>0.32</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1245,19 +1249,19 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>0.37</v>
+        <v>330.13</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E39">
-        <v>159.11000000000001</v>
+        <v>330.13</v>
       </c>
       <c r="F39">
-        <v>0.40476190476190482</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0.34482758620689657</v>
+        <v>0.98039215686274506</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1268,16 +1272,16 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>0.22</v>
+        <v>350.96</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>156.49</v>
+        <v>350.96</v>
       </c>
       <c r="G40">
-        <v>0.22</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1288,19 +1292,19 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>0.37</v>
+        <v>358.38</v>
       </c>
       <c r="D41">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E41">
-        <v>240.33</v>
+        <v>358.38</v>
       </c>
       <c r="F41">
-        <v>0.4375</v>
+        <v>0.96</v>
       </c>
       <c r="G41">
-        <v>0.30769230769230771</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1311,16 +1315,16 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>0.23</v>
+        <v>398.16</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E42">
-        <v>163.16</v>
+        <v>398.16</v>
       </c>
       <c r="G42">
-        <v>0.23</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1331,19 +1335,19 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>0.32</v>
+        <v>402.66</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E43">
-        <v>169.45</v>
+        <v>402.66</v>
       </c>
       <c r="F43">
-        <v>0.27083333333333331</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="G43">
-        <v>0.36538461538461542</v>
+        <v>0.95744680851063835</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1354,16 +1358,16 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>0.41</v>
+        <v>408.1</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E44">
-        <v>191.58</v>
+        <v>408.1</v>
       </c>
       <c r="G44">
-        <v>0.41</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1374,19 +1378,19 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>0.38</v>
+        <v>381.77</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E45">
-        <v>215.15</v>
+        <v>381.77</v>
       </c>
       <c r="F45">
-        <v>0.5</v>
+        <v>0.97959183673469385</v>
       </c>
       <c r="G45">
-        <v>0.27777777777777779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1397,16 +1401,16 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>0.33</v>
+        <v>442.93</v>
       </c>
       <c r="D46">
-        <v>0.01</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E46">
-        <v>202.4</v>
+        <v>442.93</v>
       </c>
       <c r="G46">
-        <v>0.33</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1417,19 +1421,19 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>0.33</v>
+        <v>477.56</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="E47">
-        <v>190.87</v>
+        <v>477.56</v>
       </c>
       <c r="F47">
-        <v>0.2857142857142857</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="G47">
-        <v>0.37254901960784309</v>
+        <v>0.93478260869565222</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1440,16 +1444,16 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>0.33</v>
+        <v>463.59</v>
       </c>
       <c r="D48">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E48">
-        <v>240.72</v>
+        <v>463.59</v>
       </c>
       <c r="G48">
-        <v>0.33</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1460,19 +1464,19 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>0.23</v>
+        <v>574.91</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E49">
-        <v>184.2</v>
+        <v>574.91</v>
       </c>
       <c r="F49">
-        <v>0.25</v>
+        <v>0.84090909090909094</v>
       </c>
       <c r="G49">
-        <v>0.20833333333333329</v>
+        <v>0.9107142857142857</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -1483,16 +1487,16 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>0.27</v>
+        <v>555.45000000000005</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E50">
-        <v>249.28</v>
+        <v>555.45000000000005</v>
       </c>
       <c r="G50">
-        <v>0.27</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1503,19 +1507,19 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>0.32</v>
+        <v>536.21</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E51">
-        <v>228.56</v>
+        <v>536.21</v>
       </c>
       <c r="F51">
-        <v>0.30952380952380948</v>
+        <v>0.95348837209302328</v>
       </c>
       <c r="G51">
-        <v>0.32758620689655171</v>
+        <v>0.98245614035087714</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -1526,16 +1530,16 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>0.27</v>
+        <v>616.80999999999995</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="E52">
-        <v>223.97</v>
+        <v>616.80999999999995</v>
       </c>
       <c r="G52">
-        <v>0.27</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -1546,19 +1550,19 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>0.28999999999999998</v>
+        <v>653.99</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="E53">
-        <v>243.74</v>
+        <v>653.99</v>
       </c>
       <c r="F53">
-        <v>0.33333333333333331</v>
+        <v>0.90322580645161288</v>
       </c>
       <c r="G53">
-        <v>0.2391304347826087</v>
+        <v>0.89473684210526316</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -1569,16 +1573,16 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <v>0.28000000000000003</v>
+        <v>616.37</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="E54">
-        <v>241.31</v>
+        <v>616.37</v>
       </c>
       <c r="G54">
-        <v>0.28000000000000003</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -1589,19 +1593,19 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>0.11</v>
+        <v>640.07000000000005</v>
       </c>
       <c r="D55">
-        <v>0.01</v>
+        <v>0.21</v>
       </c>
       <c r="E55">
-        <v>232.1</v>
+        <v>640.07000000000005</v>
       </c>
       <c r="F55">
-        <v>0.1333333333333333</v>
+        <v>0.95652173913043481</v>
       </c>
       <c r="G55">
-        <v>9.0909090909090912E-2</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -1612,16 +1616,16 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <v>0.35</v>
+        <v>686.12</v>
       </c>
       <c r="D56">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="E56">
-        <v>301.23</v>
+        <v>686.12</v>
       </c>
       <c r="G56">
-        <v>0.35</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -1632,19 +1636,19 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>0.26</v>
+        <v>692.69</v>
       </c>
       <c r="D57">
-        <v>0.01</v>
+        <v>0.24</v>
       </c>
       <c r="E57">
-        <v>275.95999999999998</v>
+        <v>692.69</v>
       </c>
       <c r="F57">
-        <v>0.32432432432432429</v>
+        <v>0.98</v>
       </c>
       <c r="G57">
-        <v>0.22222222222222221</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -1655,16 +1659,16 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>0.26</v>
+        <v>752.73</v>
       </c>
       <c r="D58">
-        <v>0.01</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E58">
-        <v>266.24</v>
+        <v>752.73</v>
       </c>
       <c r="G58">
-        <v>0.26</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -1675,19 +1679,19 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>0.18</v>
+        <v>721.15</v>
       </c>
       <c r="D59">
-        <v>0.01</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E59">
-        <v>260.89</v>
+        <v>721.15</v>
       </c>
       <c r="F59">
-        <v>0.169811320754717</v>
+        <v>0.98039215686274506</v>
       </c>
       <c r="G59">
-        <v>0.19148936170212769</v>
+        <v>0.89795918367346939</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -1698,16 +1702,16 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>0.28999999999999998</v>
+        <v>731.65</v>
       </c>
       <c r="D60">
-        <v>0.01</v>
+        <v>0.27</v>
       </c>
       <c r="E60">
-        <v>290.85000000000002</v>
+        <v>731.65</v>
       </c>
       <c r="G60">
-        <v>0.28999999999999998</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -1718,19 +1722,19 @@
         <v>60</v>
       </c>
       <c r="C61">
-        <v>0.27</v>
+        <v>766.13</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="E61">
-        <v>268.70999999999998</v>
+        <v>766.13</v>
       </c>
       <c r="F61">
-        <v>0.25862068965517238</v>
+        <v>0.88135593220338981</v>
       </c>
       <c r="G61">
-        <v>0.2857142857142857</v>
+        <v>0.92682926829268297</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -1741,16 +1745,16 @@
         <v>61</v>
       </c>
       <c r="C62">
-        <v>0.25</v>
+        <v>793.31</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E62">
-        <v>318.45999999999998</v>
+        <v>793.31</v>
       </c>
       <c r="G62">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -1761,19 +1765,19 @@
         <v>62</v>
       </c>
       <c r="C63">
-        <v>0.3</v>
+        <v>741.31</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E63">
-        <v>326.08999999999997</v>
+        <v>741.31</v>
       </c>
       <c r="F63">
-        <v>0.36</v>
+        <v>0.90196078431372551</v>
       </c>
       <c r="G63">
-        <v>0.24</v>
+        <v>0.91836734693877553</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -1784,16 +1788,16 @@
         <v>63</v>
       </c>
       <c r="C64">
-        <v>0.25</v>
+        <v>897.95</v>
       </c>
       <c r="D64">
-        <v>0.02</v>
+        <v>0.42</v>
       </c>
       <c r="E64">
-        <v>311.99</v>
+        <v>897.95</v>
       </c>
       <c r="G64">
-        <v>0.25</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -1804,19 +1808,19 @@
         <v>64</v>
       </c>
       <c r="C65">
-        <v>0.28000000000000003</v>
+        <v>916.59</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="E65">
-        <v>337.3</v>
+        <v>916.59</v>
       </c>
       <c r="F65">
-        <v>0.33333333333333331</v>
+        <v>0.84444444444444444</v>
       </c>
       <c r="G65">
-        <v>0.21739130434782611</v>
+        <v>0.92727272727272725</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -1827,16 +1831,16 @@
         <v>65</v>
       </c>
       <c r="C66">
-        <v>0.3</v>
+        <v>919.95</v>
       </c>
       <c r="D66">
-        <v>0.02</v>
+        <v>0.44</v>
       </c>
       <c r="E66">
-        <v>351.32</v>
+        <v>919.95</v>
       </c>
       <c r="G66">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -1847,19 +1851,19 @@
         <v>66</v>
       </c>
       <c r="C67">
-        <v>0.2</v>
+        <v>984.46</v>
       </c>
       <c r="D67">
-        <v>0.01</v>
+        <v>0.52</v>
       </c>
       <c r="E67">
-        <v>282.24</v>
+        <v>984.46</v>
       </c>
       <c r="F67">
-        <v>0.2</v>
+        <v>0.80769230769230771</v>
       </c>
       <c r="G67">
-        <v>0.2</v>
+        <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -1870,16 +1874,16 @@
         <v>67</v>
       </c>
       <c r="C68">
-        <v>0.28000000000000003</v>
+        <v>993.29</v>
       </c>
       <c r="D68">
-        <v>0.01</v>
+        <v>0.51</v>
       </c>
       <c r="E68">
-        <v>374.81</v>
+        <v>993.29</v>
       </c>
       <c r="G68">
-        <v>0.28000000000000003</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -1890,19 +1894,19 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <v>0.25</v>
+        <v>1145.18</v>
       </c>
       <c r="D69">
-        <v>0.02</v>
+        <v>0.66</v>
       </c>
       <c r="E69">
-        <v>368.46</v>
+        <v>1145.18</v>
       </c>
       <c r="F69">
-        <v>0.17499999999999999</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="G69">
-        <v>0.3</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -1913,16 +1917,16 @@
         <v>69</v>
       </c>
       <c r="C70">
-        <v>0.22</v>
+        <v>1093.82</v>
       </c>
       <c r="D70">
-        <v>0.01</v>
+        <v>0.59</v>
       </c>
       <c r="E70">
-        <v>362.63</v>
+        <v>1093.82</v>
       </c>
       <c r="G70">
-        <v>0.22</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -1933,19 +1937,19 @@
         <v>70</v>
       </c>
       <c r="C71">
-        <v>0.23</v>
+        <v>1128.57</v>
       </c>
       <c r="D71">
-        <v>0.02</v>
+        <v>0.65</v>
       </c>
       <c r="E71">
-        <v>356.43</v>
+        <v>1128.57</v>
       </c>
       <c r="F71">
-        <v>0.24489795918367349</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="G71">
-        <v>0.2156862745098039</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -1956,16 +1960,16 @@
         <v>71</v>
       </c>
       <c r="C72">
-        <v>0.25</v>
+        <v>1041.33</v>
       </c>
       <c r="D72">
-        <v>0.03</v>
+        <v>0.53</v>
       </c>
       <c r="E72">
-        <v>392.42</v>
+        <v>1041.33</v>
       </c>
       <c r="G72">
-        <v>0.25</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -1976,19 +1980,19 @@
         <v>72</v>
       </c>
       <c r="C73">
-        <v>0.17</v>
+        <v>1170.18</v>
       </c>
       <c r="D73">
-        <v>0.01</v>
+        <v>0.7</v>
       </c>
       <c r="E73">
-        <v>356.58</v>
+        <v>1170.18</v>
       </c>
       <c r="F73">
-        <v>0.16666666666666671</v>
+        <v>0.79365079365079361</v>
       </c>
       <c r="G73">
-        <v>0.1730769230769231</v>
+        <v>0.86486486486486491</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -1999,16 +2003,16 @@
         <v>73</v>
       </c>
       <c r="C74">
-        <v>0.32</v>
+        <v>1246.47</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E74">
-        <v>438.62</v>
+        <v>1246.47</v>
       </c>
       <c r="G74">
-        <v>0.32</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -2019,19 +2023,19 @@
         <v>74</v>
       </c>
       <c r="C75">
-        <v>0.28000000000000003</v>
+        <v>1202.92</v>
       </c>
       <c r="D75">
-        <v>0.01</v>
+        <v>0.74</v>
       </c>
       <c r="E75">
-        <v>392.45</v>
+        <v>1202.92</v>
       </c>
       <c r="F75">
-        <v>0.32608695652173908</v>
+        <v>0.86792452830188682</v>
       </c>
       <c r="G75">
-        <v>0.2407407407407407</v>
+        <v>0.93617021276595747</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2042,16 +2046,16 @@
         <v>75</v>
       </c>
       <c r="C76">
-        <v>0.28999999999999998</v>
+        <v>1293.83</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="E76">
-        <v>356.58</v>
+        <v>1293.83</v>
       </c>
       <c r="G76">
-        <v>0.28999999999999998</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -2062,19 +2066,19 @@
         <v>76</v>
       </c>
       <c r="C77">
-        <v>0.21</v>
+        <v>1424.14</v>
       </c>
       <c r="D77">
-        <v>0.01</v>
+        <v>0.9</v>
       </c>
       <c r="E77">
-        <v>424.69</v>
+        <v>1424.14</v>
       </c>
       <c r="F77">
-        <v>0.2040816326530612</v>
+        <v>0.77358490566037741</v>
       </c>
       <c r="G77">
-        <v>0.2156862745098039</v>
+        <v>0.82978723404255317</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -2085,16 +2089,16 @@
         <v>77</v>
       </c>
       <c r="C78">
-        <v>0.25</v>
+        <v>1147.3399999999999</v>
       </c>
       <c r="D78">
-        <v>0.02</v>
+        <v>0.68</v>
       </c>
       <c r="E78">
-        <v>456.45</v>
+        <v>1147.3399999999999</v>
       </c>
       <c r="G78">
-        <v>0.25</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -2105,19 +2109,19 @@
         <v>78</v>
       </c>
       <c r="C79">
-        <v>0.21</v>
+        <v>1390.12</v>
       </c>
       <c r="D79">
-        <v>0.02</v>
+        <v>0.89</v>
       </c>
       <c r="E79">
-        <v>363.09</v>
+        <v>1390.12</v>
       </c>
       <c r="F79">
-        <v>0.19565217391304349</v>
+        <v>0.80701754385964908</v>
       </c>
       <c r="G79">
-        <v>0.22222222222222221</v>
+        <v>0.86046511627906974</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -2128,16 +2132,16 @@
         <v>79</v>
       </c>
       <c r="C80">
-        <v>0.21</v>
+        <v>1547.65</v>
       </c>
       <c r="D80">
-        <v>0.02</v>
+        <v>1.06</v>
       </c>
       <c r="E80">
-        <v>456.07</v>
+        <v>1547.65</v>
       </c>
       <c r="G80">
-        <v>0.21</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -2148,19 +2152,19 @@
         <v>80</v>
       </c>
       <c r="C81">
-        <v>0.31</v>
+        <v>1553.66</v>
       </c>
       <c r="D81">
-        <v>0.05</v>
+        <v>1.06</v>
       </c>
       <c r="E81">
-        <v>492.77</v>
+        <v>1553.66</v>
       </c>
       <c r="F81">
-        <v>0.27272727272727271</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="G81">
-        <v>0.3392857142857143</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -2171,16 +2175,16 @@
         <v>81</v>
       </c>
       <c r="C82">
-        <v>0.22</v>
+        <v>1630.01</v>
       </c>
       <c r="D82">
-        <v>0.02</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E82">
-        <v>412.81</v>
+        <v>1630.01</v>
       </c>
       <c r="G82">
-        <v>0.22</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -2191,19 +2195,19 @@
         <v>82</v>
       </c>
       <c r="C83">
-        <v>0.18</v>
+        <v>1580.09</v>
       </c>
       <c r="D83">
-        <v>7.0000000000000007E-2</v>
+        <v>1.05</v>
       </c>
       <c r="E83">
-        <v>503.22</v>
+        <v>1580.09</v>
       </c>
       <c r="F83">
-        <v>0.1818181818181818</v>
+        <v>0.75471698113207553</v>
       </c>
       <c r="G83">
-        <v>0.17777777777777781</v>
+        <v>0.85106382978723405</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -2214,16 +2218,16 @@
         <v>83</v>
       </c>
       <c r="C84">
-        <v>0.23</v>
+        <v>1387.93</v>
       </c>
       <c r="D84">
-        <v>0.02</v>
+        <v>0.88</v>
       </c>
       <c r="E84">
-        <v>470.38</v>
+        <v>1387.93</v>
       </c>
       <c r="G84">
-        <v>0.23</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -2234,19 +2238,19 @@
         <v>84</v>
       </c>
       <c r="C85">
-        <v>0.23</v>
+        <v>1584.85</v>
       </c>
       <c r="D85">
-        <v>0.03</v>
+        <v>1.07</v>
       </c>
       <c r="E85">
-        <v>442.83</v>
+        <v>1584.85</v>
       </c>
       <c r="F85">
-        <v>0.26530612244897961</v>
+        <v>0.88636363636363635</v>
       </c>
       <c r="G85">
-        <v>0.19607843137254899</v>
+        <v>0.7678571428571429</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -2257,16 +2261,16 @@
         <v>85</v>
       </c>
       <c r="C86">
-        <v>0.25</v>
+        <v>1759.95</v>
       </c>
       <c r="D86">
-        <v>0.04</v>
+        <v>1.3</v>
       </c>
       <c r="E86">
-        <v>559.44000000000005</v>
+        <v>1759.95</v>
       </c>
       <c r="G86">
-        <v>0.25</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -2277,19 +2281,19 @@
         <v>86</v>
       </c>
       <c r="C87">
-        <v>0.15</v>
+        <v>1967.02</v>
       </c>
       <c r="D87">
-        <v>0.02</v>
+        <v>1.5</v>
       </c>
       <c r="E87">
-        <v>484.74</v>
+        <v>1967.02</v>
       </c>
       <c r="F87">
-        <v>0.14545454545454539</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G87">
-        <v>0.15555555555555561</v>
+        <v>0.86363636363636365</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -2300,16 +2304,16 @@
         <v>87</v>
       </c>
       <c r="C88">
-        <v>0.2</v>
+        <v>1912.12</v>
       </c>
       <c r="D88">
-        <v>0.06</v>
+        <v>1.42</v>
       </c>
       <c r="E88">
-        <v>507.13</v>
+        <v>1912.12</v>
       </c>
       <c r="G88">
-        <v>0.2</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -2320,19 +2324,19 @@
         <v>88</v>
       </c>
       <c r="C89">
-        <v>0.25</v>
+        <v>1907.89</v>
       </c>
       <c r="D89">
-        <v>0.06</v>
+        <v>1.42</v>
       </c>
       <c r="E89">
-        <v>564.5</v>
+        <v>1907.89</v>
       </c>
       <c r="F89">
-        <v>0.2040816326530612</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="G89">
-        <v>0.29411764705882348</v>
+        <v>0.85185185185185186</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -2343,16 +2347,16 @@
         <v>89</v>
       </c>
       <c r="C90">
-        <v>0.22</v>
+        <v>1725.18</v>
       </c>
       <c r="D90">
-        <v>0.03</v>
+        <v>1.21</v>
       </c>
       <c r="E90">
-        <v>502.09</v>
+        <v>1725.18</v>
       </c>
       <c r="G90">
-        <v>0.22</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -2363,19 +2367,19 @@
         <v>90</v>
       </c>
       <c r="C91">
-        <v>0.16</v>
+        <v>1918.45</v>
       </c>
       <c r="D91">
-        <v>0.06</v>
+        <v>1.43</v>
       </c>
       <c r="E91">
-        <v>422.58</v>
+        <v>1918.45</v>
       </c>
       <c r="F91">
-        <v>0.14545454545454539</v>
+        <v>0.77966101694915257</v>
       </c>
       <c r="G91">
-        <v>0.17777777777777781</v>
+        <v>0.70731707317073167</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -2386,16 +2390,16 @@
         <v>91</v>
       </c>
       <c r="C92">
-        <v>0.24</v>
+        <v>1631.32</v>
       </c>
       <c r="D92">
-        <v>0.09</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E92">
-        <v>574.11</v>
+        <v>1631.32</v>
       </c>
       <c r="G92">
-        <v>0.24</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -2406,19 +2410,19 @@
         <v>92</v>
       </c>
       <c r="C93">
-        <v>0.27</v>
+        <v>1809.86</v>
       </c>
       <c r="D93">
-        <v>0.05</v>
+        <v>1.26</v>
       </c>
       <c r="E93">
-        <v>594.5</v>
+        <v>1809.86</v>
       </c>
       <c r="F93">
-        <v>0.22</v>
+        <v>0.92452830188679247</v>
       </c>
       <c r="G93">
-        <v>0.32</v>
+        <v>0.85106382978723405</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -2429,16 +2433,16 @@
         <v>93</v>
       </c>
       <c r="C94">
-        <v>0.18</v>
+        <v>2000.58</v>
       </c>
       <c r="D94">
-        <v>0.04</v>
+        <v>1.52</v>
       </c>
       <c r="E94">
-        <v>511.03</v>
+        <v>2000.58</v>
       </c>
       <c r="G94">
-        <v>0.18</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -2449,19 +2453,19 @@
         <v>94</v>
       </c>
       <c r="C95">
-        <v>0.16</v>
+        <v>2088.0100000000002</v>
       </c>
       <c r="D95">
-        <v>0.05</v>
+        <v>1.58</v>
       </c>
       <c r="E95">
-        <v>537.58000000000004</v>
+        <v>2088.0100000000002</v>
       </c>
       <c r="F95">
-        <v>0.20370370370370369</v>
+        <v>0.8</v>
       </c>
       <c r="G95">
-        <v>0.108695652173913</v>
+        <v>0.81818181818181823</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -2472,16 +2476,16 @@
         <v>95</v>
       </c>
       <c r="C96">
-        <v>0.21</v>
+        <v>2053.9</v>
       </c>
       <c r="D96">
-        <v>0.03</v>
+        <v>1.54</v>
       </c>
       <c r="E96">
-        <v>582.78</v>
+        <v>2053.9</v>
       </c>
       <c r="G96">
-        <v>0.21</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -2492,19 +2496,19 @@
         <v>96</v>
       </c>
       <c r="C97">
-        <v>0.18</v>
+        <v>2015.66</v>
       </c>
       <c r="D97">
-        <v>0.05</v>
+        <v>1.47</v>
       </c>
       <c r="E97">
-        <v>514.38</v>
+        <v>2015.66</v>
       </c>
       <c r="F97">
-        <v>0.1730769230769231</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="G97">
-        <v>0.1875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -2515,16 +2519,16 @@
         <v>97</v>
       </c>
       <c r="C98">
-        <v>0.2</v>
+        <v>1966.14</v>
       </c>
       <c r="D98">
-        <v>0.09</v>
+        <v>1.47</v>
       </c>
       <c r="E98">
-        <v>643.12</v>
+        <v>1966.14</v>
       </c>
       <c r="G98">
-        <v>0.2</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -2535,19 +2539,19 @@
         <v>98</v>
       </c>
       <c r="C99">
-        <v>0.22</v>
+        <v>2340.66</v>
       </c>
       <c r="D99">
-        <v>0.09</v>
+        <v>1.88</v>
       </c>
       <c r="E99">
-        <v>657.08</v>
+        <v>2340.66</v>
       </c>
       <c r="F99">
-        <v>0.14285714285714279</v>
+        <v>0.80392156862745101</v>
       </c>
       <c r="G99">
-        <v>0.29411764705882348</v>
+        <v>0.89795918367346939</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -2558,16 +2562,16 @@
         <v>99</v>
       </c>
       <c r="C100">
-        <v>0.24</v>
+        <v>2502.25</v>
       </c>
       <c r="D100">
-        <v>0.05</v>
+        <v>1.99</v>
       </c>
       <c r="E100">
-        <v>573.76</v>
+        <v>2502.25</v>
       </c>
       <c r="G100">
-        <v>0.24</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -2578,19 +2582,19 @@
         <v>100</v>
       </c>
       <c r="C101">
-        <v>0.23</v>
+        <v>2330</v>
       </c>
       <c r="D101">
-        <v>0.13</v>
+        <v>1.85</v>
       </c>
       <c r="E101">
-        <v>666.07</v>
+        <v>2330</v>
       </c>
       <c r="F101">
-        <v>0.23809523809523811</v>
+        <v>0.82978723404255317</v>
       </c>
       <c r="G101">
-        <v>0.22413793103448279</v>
+        <v>0.81132075471698117</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -2601,16 +2605,16 @@
         <v>101</v>
       </c>
       <c r="C102">
-        <v>0.21</v>
+        <v>2242.5100000000002</v>
       </c>
       <c r="D102">
-        <v>0.16</v>
+        <v>1.71</v>
       </c>
       <c r="E102">
-        <v>669.3</v>
+        <v>2242.5100000000002</v>
       </c>
       <c r="G102">
-        <v>0.21</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -2621,19 +2625,19 @@
         <v>102</v>
       </c>
       <c r="C103">
-        <v>0.14000000000000001</v>
+        <v>2701.54</v>
       </c>
       <c r="D103">
-        <v>7.0000000000000007E-2</v>
+        <v>2.19</v>
       </c>
       <c r="E103">
-        <v>520.45000000000005</v>
+        <v>2701.54</v>
       </c>
       <c r="F103">
-        <v>0.1276595744680851</v>
+        <v>0.74</v>
       </c>
       <c r="G103">
-        <v>0.15094339622641509</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -2644,16 +2648,16 @@
         <v>103</v>
       </c>
       <c r="C104">
-        <v>0.16</v>
+        <v>2483.56</v>
       </c>
       <c r="D104">
-        <v>0.11</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="E104">
-        <v>648.64</v>
+        <v>2483.56</v>
       </c>
       <c r="G104">
-        <v>0.16</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -2664,19 +2668,19 @@
         <v>104</v>
       </c>
       <c r="C105">
-        <v>0.2</v>
+        <v>2554.54</v>
       </c>
       <c r="D105">
-        <v>0.18</v>
+        <v>2.06</v>
       </c>
       <c r="E105">
-        <v>761.58</v>
+        <v>2554.54</v>
       </c>
       <c r="F105">
-        <v>0.1395348837209302</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="G105">
-        <v>0.24561403508771931</v>
+        <v>0.84444444444444444</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -2687,16 +2691,16 @@
         <v>105</v>
       </c>
       <c r="C106">
-        <v>0.15</v>
+        <v>2682.97</v>
       </c>
       <c r="D106">
-        <v>0.06</v>
+        <v>2.11</v>
       </c>
       <c r="E106">
-        <v>590.16999999999996</v>
+        <v>2682.97</v>
       </c>
       <c r="G106">
-        <v>0.15</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -2707,19 +2711,19 @@
         <v>106</v>
       </c>
       <c r="C107">
-        <v>0.21</v>
+        <v>2814.66</v>
       </c>
       <c r="D107">
-        <v>0.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E107">
-        <v>670.3</v>
+        <v>2814.66</v>
       </c>
       <c r="F107">
-        <v>0.2</v>
+        <v>0.75510204081632648</v>
       </c>
       <c r="G107">
-        <v>0.22</v>
+        <v>0.78431372549019607</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -2730,16 +2734,16 @@
         <v>107</v>
       </c>
       <c r="C108">
-        <v>0.2</v>
+        <v>2834.32</v>
       </c>
       <c r="D108">
-        <v>0.12</v>
+        <v>2.31</v>
       </c>
       <c r="E108">
-        <v>699.39</v>
+        <v>2834.32</v>
       </c>
       <c r="G108">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -2750,19 +2754,19 @@
         <v>108</v>
       </c>
       <c r="C109">
-        <v>0.14000000000000001</v>
+        <v>2830.88</v>
       </c>
       <c r="D109">
-        <v>7.0000000000000007E-2</v>
+        <v>2.27</v>
       </c>
       <c r="E109">
-        <v>587.1</v>
+        <v>2830.88</v>
       </c>
       <c r="F109">
-        <v>8.771929824561403E-2</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G109">
-        <v>0.20930232558139539</v>
+        <v>0.72727272727272729</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -2773,16 +2777,16 @@
         <v>109</v>
       </c>
       <c r="C110">
-        <v>0.26</v>
+        <v>2852.95</v>
       </c>
       <c r="D110">
-        <v>0.12</v>
+        <v>2.29</v>
       </c>
       <c r="E110">
-        <v>767.74</v>
+        <v>2852.95</v>
       </c>
       <c r="G110">
-        <v>0.26</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -2793,19 +2797,19 @@
         <v>110</v>
       </c>
       <c r="C111">
-        <v>0.14000000000000001</v>
+        <v>3359.34</v>
       </c>
       <c r="D111">
-        <v>0.15</v>
+        <v>2.81</v>
       </c>
       <c r="E111">
-        <v>694.28</v>
+        <v>3359.34</v>
       </c>
       <c r="F111">
-        <v>0.1395348837209302</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G111">
-        <v>0.14035087719298239</v>
+        <v>0.78431372549019607</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -2816,16 +2820,16 @@
         <v>111</v>
       </c>
       <c r="C112">
-        <v>0.18</v>
+        <v>3124.23</v>
       </c>
       <c r="D112">
-        <v>0.1</v>
+        <v>2.54</v>
       </c>
       <c r="E112">
-        <v>638.39</v>
+        <v>3124.23</v>
       </c>
       <c r="G112">
-        <v>0.18</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -2836,19 +2840,19 @@
         <v>112</v>
       </c>
       <c r="C113">
-        <v>0.12</v>
+        <v>3163.98</v>
       </c>
       <c r="D113">
-        <v>0.15</v>
+        <v>2.61</v>
       </c>
       <c r="E113">
-        <v>683.43</v>
+        <v>3163.98</v>
       </c>
       <c r="F113">
-        <v>8.1632653061224483E-2</v>
+        <v>0.7</v>
       </c>
       <c r="G113">
-        <v>0.15686274509803921</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -2859,16 +2863,16 @@
         <v>113</v>
       </c>
       <c r="C114">
-        <v>0.22</v>
+        <v>2777.02</v>
       </c>
       <c r="D114">
-        <v>0.19</v>
+        <v>2.21</v>
       </c>
       <c r="E114">
-        <v>765.38</v>
+        <v>2777.02</v>
       </c>
       <c r="G114">
-        <v>0.22</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -2879,19 +2883,19 @@
         <v>114</v>
       </c>
       <c r="C115">
-        <v>0.11</v>
+        <v>3105.22</v>
       </c>
       <c r="D115">
-        <v>0.19</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="E115">
-        <v>699.13</v>
+        <v>3105.22</v>
       </c>
       <c r="F115">
-        <v>0.108695652173913</v>
+        <v>0.62</v>
       </c>
       <c r="G115">
-        <v>0.1111111111111111</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -2902,16 +2906,16 @@
         <v>115</v>
       </c>
       <c r="C116">
-        <v>0.19</v>
+        <v>3142.82</v>
       </c>
       <c r="D116">
-        <v>0.17</v>
+        <v>2.59</v>
       </c>
       <c r="E116">
-        <v>817.13</v>
+        <v>3142.82</v>
       </c>
       <c r="G116">
-        <v>0.19</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -2922,19 +2926,19 @@
         <v>116</v>
       </c>
       <c r="C117">
-        <v>0.26</v>
+        <v>3540.82</v>
       </c>
       <c r="D117">
-        <v>0.19</v>
+        <v>2.97</v>
       </c>
       <c r="E117">
-        <v>797.14</v>
+        <v>3540.82</v>
       </c>
       <c r="F117">
-        <v>0.25531914893617019</v>
+        <v>0.70370370370370372</v>
       </c>
       <c r="G117">
-        <v>0.26415094339622641</v>
+        <v>0.84782608695652173</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -2945,16 +2949,16 @@
         <v>117</v>
       </c>
       <c r="C118">
-        <v>0.16</v>
+        <v>3068.64</v>
       </c>
       <c r="D118">
-        <v>0.26</v>
+        <v>2.5</v>
       </c>
       <c r="E118">
-        <v>852.96</v>
+        <v>3068.64</v>
       </c>
       <c r="G118">
-        <v>0.16</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -2965,19 +2969,19 @@
         <v>118</v>
       </c>
       <c r="C119">
-        <v>0.16</v>
+        <v>3969.33</v>
       </c>
       <c r="D119">
-        <v>0.18</v>
+        <v>3.4</v>
       </c>
       <c r="E119">
-        <v>670.85</v>
+        <v>3969.33</v>
       </c>
       <c r="F119">
-        <v>0.19230769230769229</v>
+        <v>0.63461538461538458</v>
       </c>
       <c r="G119">
-        <v>0.125</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -2988,16 +2992,16 @@
         <v>119</v>
       </c>
       <c r="C120">
-        <v>0.18</v>
+        <v>3338.3</v>
       </c>
       <c r="D120">
-        <v>0.3</v>
+        <v>2.75</v>
       </c>
       <c r="E120">
-        <v>807.54</v>
+        <v>3338.3</v>
       </c>
       <c r="G120">
-        <v>0.18</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -3008,19 +3012,19 @@
         <v>120</v>
       </c>
       <c r="C121">
-        <v>0.18</v>
+        <v>3463.34</v>
       </c>
       <c r="D121">
-        <v>0.31</v>
+        <v>2.95</v>
       </c>
       <c r="E121">
-        <v>687.99</v>
+        <v>3463.34</v>
       </c>
       <c r="F121">
-        <v>0.12</v>
+        <v>0.59183673469387754</v>
       </c>
       <c r="G121">
-        <v>0.24</v>
+        <v>0.60784313725490191</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -3031,16 +3035,16 @@
         <v>121</v>
       </c>
       <c r="C122">
-        <v>0.18</v>
+        <v>3234.24</v>
       </c>
       <c r="D122">
-        <v>0.55000000000000004</v>
+        <v>2.64</v>
       </c>
       <c r="E122">
-        <v>947.33</v>
+        <v>3234.24</v>
       </c>
       <c r="G122">
-        <v>0.18</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -3051,19 +3055,19 @@
         <v>122</v>
       </c>
       <c r="C123">
-        <v>0.1</v>
+        <v>4047.15</v>
       </c>
       <c r="D123">
-        <v>0.45</v>
+        <v>3.5</v>
       </c>
       <c r="E123">
-        <v>798.75</v>
+        <v>4047.15</v>
       </c>
       <c r="F123">
-        <v>7.1428571428571425E-2</v>
+        <v>0.67307692307692313</v>
       </c>
       <c r="G123">
-        <v>0.1206896551724138</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -3074,16 +3078,16 @@
         <v>123</v>
       </c>
       <c r="C124">
-        <v>0.19</v>
+        <v>4099.75</v>
       </c>
       <c r="D124">
-        <v>0.6</v>
+        <v>3.48</v>
       </c>
       <c r="E124">
-        <v>906.06</v>
+        <v>4099.75</v>
       </c>
       <c r="G124">
-        <v>0.19</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -3094,19 +3098,19 @@
         <v>124</v>
       </c>
       <c r="C125">
-        <v>0.13</v>
+        <v>4164.68</v>
       </c>
       <c r="D125">
-        <v>0.35</v>
+        <v>3.68</v>
       </c>
       <c r="E125">
-        <v>814.6</v>
+        <v>4164.68</v>
       </c>
       <c r="F125">
-        <v>8.3333333333333329E-2</v>
+        <v>0.63461538461538458</v>
       </c>
       <c r="G125">
-        <v>0.1730769230769231</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -3117,16 +3121,16 @@
         <v>125</v>
       </c>
       <c r="C126">
-        <v>0.2</v>
+        <v>3649.43</v>
       </c>
       <c r="D126">
+        <v>3.17</v>
+      </c>
+      <c r="E126">
+        <v>3649.43</v>
+      </c>
+      <c r="G126">
         <v>0.57999999999999996</v>
-      </c>
-      <c r="E126">
-        <v>857.32</v>
-      </c>
-      <c r="G126">
-        <v>0.2</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -3137,19 +3141,19 @@
         <v>126</v>
       </c>
       <c r="C127">
-        <v>0.08</v>
+        <v>4322.1499999999996</v>
       </c>
       <c r="D127">
-        <v>0.39</v>
+        <v>3.78</v>
       </c>
       <c r="E127">
-        <v>680.47</v>
+        <v>4322.1499999999996</v>
       </c>
       <c r="F127">
-        <v>6.1224489795918373E-2</v>
+        <v>0.7</v>
       </c>
       <c r="G127">
-        <v>9.8039215686274508E-2</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -3160,16 +3164,16 @@
         <v>127</v>
       </c>
       <c r="C128">
-        <v>0.19</v>
+        <v>4006.37</v>
       </c>
       <c r="D128">
-        <v>0.71</v>
+        <v>3.46</v>
       </c>
       <c r="E128">
-        <v>1006.61</v>
+        <v>4006.37</v>
       </c>
       <c r="G128">
-        <v>0.19</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -3180,19 +3184,19 @@
         <v>128</v>
       </c>
       <c r="C129">
-        <v>0.19</v>
+        <v>4130.1899999999996</v>
       </c>
       <c r="D129">
-        <v>0.65</v>
+        <v>3.63</v>
       </c>
       <c r="E129">
-        <v>1015.91</v>
+        <v>4130.1899999999996</v>
       </c>
       <c r="F129">
-        <v>0.23076923076923081</v>
+        <v>0.80701754385964908</v>
       </c>
       <c r="G129">
-        <v>0.14583333333333329</v>
+        <v>0.79069767441860461</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -3203,16 +3207,16 @@
         <v>129</v>
       </c>
       <c r="C130">
-        <v>0.19</v>
+        <v>5105.01</v>
       </c>
       <c r="D130">
-        <v>0.65</v>
+        <v>4.62</v>
       </c>
       <c r="E130">
-        <v>901.67</v>
+        <v>5105.01</v>
       </c>
       <c r="G130">
-        <v>0.19</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -3223,19 +3227,19 @@
         <v>130</v>
       </c>
       <c r="C131">
-        <v>0.11</v>
+        <v>4446.8900000000003</v>
       </c>
       <c r="D131">
-        <v>0.49</v>
+        <v>4.01</v>
       </c>
       <c r="E131">
-        <v>870.24</v>
+        <v>4446.8900000000003</v>
       </c>
       <c r="F131">
-        <v>0.1111111111111111</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="G131">
-        <v>0.1090909090909091</v>
+        <v>0.46341463414634149</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -3246,16 +3250,16 @@
         <v>131</v>
       </c>
       <c r="C132">
-        <v>0.13</v>
+        <v>3999.83</v>
       </c>
       <c r="D132">
-        <v>0.64</v>
+        <v>3.58</v>
       </c>
       <c r="E132">
-        <v>940.15</v>
+        <v>3999.83</v>
       </c>
       <c r="G132">
-        <v>0.13</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -3266,19 +3270,19 @@
         <v>132</v>
       </c>
       <c r="C133">
-        <v>0.13</v>
+        <v>4092.9</v>
       </c>
       <c r="D133">
-        <v>0.53</v>
+        <v>3.65</v>
       </c>
       <c r="E133">
-        <v>806.05</v>
+        <v>4092.9</v>
       </c>
       <c r="F133">
-        <v>6.25E-2</v>
+        <v>0.57777777777777772</v>
       </c>
       <c r="G133">
-        <v>0.19230769230769229</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -3289,16 +3293,16 @@
         <v>133</v>
       </c>
       <c r="C134">
-        <v>0.18</v>
+        <v>5082.71</v>
       </c>
       <c r="D134">
-        <v>0.85</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="E134">
-        <v>1160.27</v>
+        <v>5082.71</v>
       </c>
       <c r="G134">
-        <v>0.18</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -3309,19 +3313,19 @@
         <v>134</v>
       </c>
       <c r="C135">
-        <v>0.15</v>
+        <v>4929.79</v>
       </c>
       <c r="D135">
-        <v>0.61</v>
+        <v>4.53</v>
       </c>
       <c r="E135">
-        <v>919.13</v>
+        <v>4929.79</v>
       </c>
       <c r="F135">
-        <v>0.20454545454545461</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G135">
-        <v>0.1071428571428571</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -3332,16 +3336,16 @@
         <v>135</v>
       </c>
       <c r="C136">
-        <v>0.1</v>
+        <v>4851.5600000000004</v>
       </c>
       <c r="D136">
-        <v>0.71</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E136">
-        <v>1014.96</v>
+        <v>4851.5600000000004</v>
       </c>
       <c r="G136">
-        <v>0.1</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -3352,19 +3356,19 @@
         <v>136</v>
       </c>
       <c r="C137">
-        <v>0.08</v>
+        <v>4818.18</v>
       </c>
       <c r="D137">
-        <v>0.67</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="E137">
-        <v>981.4</v>
+        <v>4818.18</v>
       </c>
       <c r="F137">
-        <v>9.2592592592592587E-2</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="G137">
-        <v>6.5217391304347824E-2</v>
+        <v>0.55737704918032782</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -3375,16 +3379,16 @@
         <v>137</v>
       </c>
       <c r="C138">
-        <v>0.16</v>
+        <v>4258.21</v>
       </c>
       <c r="D138">
-        <v>0.68</v>
+        <v>3.83</v>
       </c>
       <c r="E138">
-        <v>1010.75</v>
+        <v>4258.21</v>
       </c>
       <c r="G138">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -3395,19 +3399,19 @@
         <v>138</v>
       </c>
       <c r="C139">
-        <v>0.05</v>
+        <v>4784.97</v>
       </c>
       <c r="D139">
-        <v>0.42</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="E139">
-        <v>756.7</v>
+        <v>4784.97</v>
       </c>
       <c r="F139">
-        <v>6.1224489795918373E-2</v>
+        <v>0.5</v>
       </c>
       <c r="G139">
-        <v>3.9215686274509803E-2</v>
+        <v>0.59259259259259256</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -3418,16 +3422,16 @@
         <v>139</v>
       </c>
       <c r="C140">
-        <v>0.18</v>
+        <v>5082.93</v>
       </c>
       <c r="D140">
-        <v>0.74</v>
+        <v>4.72</v>
       </c>
       <c r="E140">
-        <v>1118.81</v>
+        <v>5082.93</v>
       </c>
       <c r="G140">
-        <v>0.18</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -3438,19 +3442,19 @@
         <v>140</v>
       </c>
       <c r="C141">
-        <v>0.11</v>
+        <v>5345.95</v>
       </c>
       <c r="D141">
-        <v>0.66</v>
+        <v>4.88</v>
       </c>
       <c r="E141">
-        <v>990.97</v>
+        <v>5345.95</v>
       </c>
       <c r="F141">
-        <v>6.25E-2</v>
+        <v>0.58490566037735847</v>
       </c>
       <c r="G141">
-        <v>0.15384615384615391</v>
+        <v>0.65957446808510634</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -3461,16 +3465,16 @@
         <v>141</v>
       </c>
       <c r="C142">
-        <v>0.12</v>
+        <v>5433.53</v>
       </c>
       <c r="D142">
+        <v>4.96</v>
+      </c>
+      <c r="E142">
+        <v>5433.53</v>
+      </c>
+      <c r="G142">
         <v>0.57999999999999996</v>
-      </c>
-      <c r="E142">
-        <v>981.54</v>
-      </c>
-      <c r="G142">
-        <v>0.12</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -3481,19 +3485,19 @@
         <v>142</v>
       </c>
       <c r="C143">
-        <v>0.13</v>
+        <v>5670.08</v>
       </c>
       <c r="D143">
-        <v>0.7</v>
+        <v>5.2</v>
       </c>
       <c r="E143">
-        <v>1021.29</v>
+        <v>5670.08</v>
       </c>
       <c r="F143">
-        <v>0.14285714285714279</v>
+        <v>0.51020408163265307</v>
       </c>
       <c r="G143">
-        <v>0.1206896551724138</v>
+        <v>0.50980392156862742</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -3504,16 +3508,16 @@
         <v>143</v>
       </c>
       <c r="C144">
-        <v>0.12</v>
+        <v>5605.34</v>
       </c>
       <c r="D144">
-        <v>0.72</v>
+        <v>5.12</v>
       </c>
       <c r="E144">
-        <v>1071.69</v>
+        <v>5605.34</v>
       </c>
       <c r="G144">
-        <v>0.12</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -3524,19 +3528,19 @@
         <v>144</v>
       </c>
       <c r="C145">
-        <v>0.15</v>
+        <v>4822.8100000000004</v>
       </c>
       <c r="D145">
-        <v>0.64</v>
+        <v>4.37</v>
       </c>
       <c r="E145">
-        <v>1001.6</v>
+        <v>4822.8100000000004</v>
       </c>
       <c r="F145">
-        <v>0.1071428571428571</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="G145">
-        <v>0.20454545454545461</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -3547,16 +3551,16 @@
         <v>145</v>
       </c>
       <c r="C146">
-        <v>0.16</v>
+        <v>5500.84</v>
       </c>
       <c r="D146">
-        <v>0.84</v>
+        <v>5.07</v>
       </c>
       <c r="E146">
-        <v>1225.43</v>
+        <v>5500.84</v>
       </c>
       <c r="G146">
-        <v>0.16</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -3567,19 +3571,19 @@
         <v>146</v>
       </c>
       <c r="C147">
-        <v>0.16</v>
+        <v>6523.63</v>
       </c>
       <c r="D147">
-        <v>0.75</v>
+        <v>6.03</v>
       </c>
       <c r="E147">
-        <v>1105.06</v>
+        <v>6523.63</v>
       </c>
       <c r="F147">
-        <v>0.18867924528301891</v>
+        <v>0.51351351351351349</v>
       </c>
       <c r="G147">
-        <v>0.1276595744680851</v>
+        <v>0.49206349206349198</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -3590,16 +3594,16 @@
         <v>147</v>
       </c>
       <c r="C148">
-        <v>0.17</v>
+        <v>5753.56</v>
       </c>
       <c r="D148">
-        <v>0.71</v>
+        <v>5.25</v>
       </c>
       <c r="E148">
-        <v>1078.99</v>
+        <v>5753.56</v>
       </c>
       <c r="G148">
-        <v>0.17</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -3610,19 +3614,19 @@
         <v>148</v>
       </c>
       <c r="C149">
-        <v>0.15</v>
+        <v>6242.44</v>
       </c>
       <c r="D149">
-        <v>0.7</v>
+        <v>5.76</v>
       </c>
       <c r="E149">
-        <v>1130.01</v>
+        <v>6242.44</v>
       </c>
       <c r="F149">
-        <v>0.2</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="G149">
-        <v>0.1090909090909091</v>
+        <v>0.46153846153846162</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -3633,16 +3637,16 @@
         <v>149</v>
       </c>
       <c r="C150">
-        <v>0.14000000000000001</v>
+        <v>5013.5</v>
       </c>
       <c r="D150">
-        <v>0.73</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="E150">
-        <v>1146.29</v>
+        <v>5013.5</v>
       </c>
       <c r="G150">
-        <v>0.14000000000000001</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -3653,19 +3657,19 @@
         <v>150</v>
       </c>
       <c r="C151">
-        <v>0.1</v>
+        <v>5912.07</v>
       </c>
       <c r="D151">
-        <v>0.64</v>
+        <v>5.4</v>
       </c>
       <c r="E151">
-        <v>1048.3599999999999</v>
+        <v>5912.07</v>
       </c>
       <c r="F151">
-        <v>7.407407407407407E-2</v>
+        <v>0.56140350877192979</v>
       </c>
       <c r="G151">
-        <v>0.13043478260869559</v>
+        <v>0.51162790697674421</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -3676,16 +3680,16 @@
         <v>151</v>
       </c>
       <c r="C152">
-        <v>0.21</v>
+        <v>6469</v>
       </c>
       <c r="D152">
-        <v>0.84</v>
+        <v>6</v>
       </c>
       <c r="E152">
-        <v>1304.19</v>
+        <v>6469</v>
       </c>
       <c r="G152">
-        <v>0.21</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -3696,19 +3700,19 @@
         <v>152</v>
       </c>
       <c r="C153">
-        <v>0.11</v>
+        <v>6325.62</v>
       </c>
       <c r="D153">
-        <v>0.69</v>
+        <v>5.85</v>
       </c>
       <c r="E153">
-        <v>1123.75</v>
+        <v>6325.62</v>
       </c>
       <c r="F153">
-        <v>0.13157894736842099</v>
+        <v>0.55102040816326525</v>
       </c>
       <c r="G153">
-        <v>9.6774193548387094E-2</v>
+        <v>0.58823529411764708</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -3719,16 +3723,16 @@
         <v>153</v>
       </c>
       <c r="C154">
-        <v>0.17</v>
+        <v>6802.47</v>
       </c>
       <c r="D154">
-        <v>0.73</v>
+        <v>6.33</v>
       </c>
       <c r="E154">
-        <v>1163.93</v>
+        <v>6802.47</v>
       </c>
       <c r="G154">
-        <v>0.17</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -3739,19 +3743,19 @@
         <v>154</v>
       </c>
       <c r="C155">
-        <v>0.11</v>
+        <v>6814.11</v>
       </c>
       <c r="D155">
-        <v>0.61</v>
+        <v>6.29</v>
       </c>
       <c r="E155">
-        <v>1017</v>
+        <v>6814.11</v>
       </c>
       <c r="F155">
-        <v>0.1136363636363636</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G155">
-        <v>0.1071428571428571</v>
+        <v>0.51724137931034486</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -3762,16 +3766,16 @@
         <v>155</v>
       </c>
       <c r="C156">
-        <v>0.1</v>
+        <v>6055.97</v>
       </c>
       <c r="D156">
-        <v>0.72</v>
+        <v>5.62</v>
       </c>
       <c r="E156">
-        <v>1143.3900000000001</v>
+        <v>6055.97</v>
       </c>
       <c r="G156">
-        <v>0.1</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -3782,19 +3786,19 @@
         <v>156</v>
       </c>
       <c r="C157">
-        <v>7.0000000000000007E-2</v>
+        <v>6052.24</v>
       </c>
       <c r="D157">
-        <v>0.57999999999999996</v>
+        <v>5.57</v>
       </c>
       <c r="E157">
-        <v>962.85</v>
+        <v>6052.24</v>
       </c>
       <c r="F157">
-        <v>8.6206896551724144E-2</v>
+        <v>0.39130434782608697</v>
       </c>
       <c r="G157">
-        <v>4.7619047619047623E-2</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -3805,16 +3809,16 @@
         <v>157</v>
       </c>
       <c r="C158">
-        <v>0.11</v>
+        <v>5458.6</v>
       </c>
       <c r="D158">
-        <v>0.81</v>
+        <v>4.95</v>
       </c>
       <c r="E158">
-        <v>1314.53</v>
+        <v>5458.6</v>
       </c>
       <c r="G158">
-        <v>0.11</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -3825,19 +3829,19 @@
         <v>158</v>
       </c>
       <c r="C159">
-        <v>0.17</v>
+        <v>7446.35</v>
       </c>
       <c r="D159">
-        <v>0.79</v>
+        <v>6.95</v>
       </c>
       <c r="E159">
-        <v>1248.2</v>
+        <v>7446.35</v>
       </c>
       <c r="F159">
-        <v>0.1521739130434783</v>
+        <v>0.56896551724137934</v>
       </c>
       <c r="G159">
-        <v>0.1851851851851852</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -3848,16 +3852,16 @@
         <v>159</v>
       </c>
       <c r="C160">
-        <v>0.14000000000000001</v>
+        <v>7420.83</v>
       </c>
       <c r="D160">
-        <v>0.75</v>
+        <v>6.93</v>
       </c>
       <c r="E160">
-        <v>1183.1500000000001</v>
+        <v>7420.83</v>
       </c>
       <c r="G160">
-        <v>0.14000000000000001</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -3868,19 +3872,19 @@
         <v>160</v>
       </c>
       <c r="C161">
-        <v>0.13</v>
+        <v>6915.92</v>
       </c>
       <c r="D161">
-        <v>0.9</v>
+        <v>6.44</v>
       </c>
       <c r="E161">
-        <v>1330.77</v>
+        <v>6915.92</v>
       </c>
       <c r="F161">
-        <v>0.1875</v>
+        <v>0.5</v>
       </c>
       <c r="G161">
-        <v>7.6923076923076927E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -3891,16 +3895,16 @@
         <v>161</v>
       </c>
       <c r="C162">
-        <v>0.2</v>
+        <v>5879.53</v>
       </c>
       <c r="D162">
-        <v>0.94</v>
+        <v>5.34</v>
       </c>
       <c r="E162">
-        <v>1442.72</v>
+        <v>5879.53</v>
       </c>
       <c r="G162">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -3911,19 +3915,19 @@
         <v>162</v>
       </c>
       <c r="C163">
-        <v>0.04</v>
+        <v>6638.04</v>
       </c>
       <c r="D163">
-        <v>0.6</v>
+        <v>6.17</v>
       </c>
       <c r="E163">
-        <v>1028.0999999999999</v>
+        <v>6638.04</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>0.39622641509433959</v>
       </c>
       <c r="G163">
-        <v>7.1428571428571425E-2</v>
+        <v>0.42553191489361702</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -3934,16 +3938,16 @@
         <v>163</v>
       </c>
       <c r="C164">
-        <v>0.21</v>
+        <v>7289.95</v>
       </c>
       <c r="D164">
-        <v>0.88</v>
+        <v>6.76</v>
       </c>
       <c r="E164">
-        <v>1365.28</v>
+        <v>7289.95</v>
       </c>
       <c r="G164">
-        <v>0.21</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -3954,19 +3958,19 @@
         <v>164</v>
       </c>
       <c r="C165">
-        <v>0.13</v>
+        <v>7367.24</v>
       </c>
       <c r="D165">
-        <v>0.85</v>
+        <v>6.84</v>
       </c>
       <c r="E165">
-        <v>1339.05</v>
+        <v>7367.24</v>
       </c>
       <c r="F165">
-        <v>0.125</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G165">
-        <v>0.13636363636363641</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -3977,16 +3981,16 @@
         <v>165</v>
       </c>
       <c r="C166">
-        <v>0.11</v>
+        <v>7549.48</v>
       </c>
       <c r="D166">
-        <v>0.69</v>
+        <v>7.05</v>
       </c>
       <c r="E166">
-        <v>1176.0899999999999</v>
+        <v>7549.48</v>
       </c>
       <c r="G166">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -3997,19 +4001,19 @@
         <v>166</v>
       </c>
       <c r="C167">
-        <v>0.06</v>
+        <v>7737.28</v>
       </c>
       <c r="D167">
-        <v>0.62</v>
+        <v>7.26</v>
       </c>
       <c r="E167">
-        <v>1047.3800000000001</v>
+        <v>7737.28</v>
       </c>
       <c r="F167">
-        <v>9.2592592592592587E-2</v>
+        <v>0.35294117647058831</v>
       </c>
       <c r="G167">
-        <v>2.1739130434782612E-2</v>
+        <v>0.38775510204081631</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -4020,16 +4024,16 @@
         <v>167</v>
       </c>
       <c r="C168">
-        <v>0.09</v>
+        <v>7155.16</v>
       </c>
       <c r="D168">
-        <v>0.95</v>
+        <v>6.65</v>
       </c>
       <c r="E168">
-        <v>1474.37</v>
+        <v>7155.16</v>
       </c>
       <c r="G168">
-        <v>0.09</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -4040,19 +4044,19 @@
         <v>168</v>
       </c>
       <c r="C169">
-        <v>0.1</v>
+        <v>7479.44</v>
       </c>
       <c r="D169">
-        <v>0.75</v>
+        <v>7.02</v>
       </c>
       <c r="E169">
-        <v>1267.97</v>
+        <v>7479.44</v>
       </c>
       <c r="F169">
-        <v>4.0816326530612242E-2</v>
+        <v>0.30357142857142849</v>
       </c>
       <c r="G169">
-        <v>0.15686274509803921</v>
+        <v>0.45454545454545447</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -4063,16 +4067,16 @@
         <v>169</v>
       </c>
       <c r="C170">
-        <v>0.12</v>
+        <v>7831.97</v>
       </c>
       <c r="D170">
-        <v>1.04</v>
+        <v>7.32</v>
       </c>
       <c r="E170">
-        <v>1556.06</v>
+        <v>7831.97</v>
       </c>
       <c r="G170">
-        <v>0.12</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -4083,19 +4087,19 @@
         <v>170</v>
       </c>
       <c r="C171">
-        <v>0.1</v>
+        <v>9215.35</v>
       </c>
       <c r="D171">
-        <v>0.89</v>
+        <v>8.67</v>
       </c>
       <c r="E171">
-        <v>1373.29</v>
+        <v>9215.35</v>
       </c>
       <c r="F171">
-        <v>7.2727272727272724E-2</v>
+        <v>0.41818181818181821</v>
       </c>
       <c r="G171">
-        <v>0.1333333333333333</v>
+        <v>0.42222222222222222</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -4106,16 +4110,16 @@
         <v>171</v>
       </c>
       <c r="C172">
-        <v>0.09</v>
+        <v>8258.66</v>
       </c>
       <c r="D172">
-        <v>0.92</v>
+        <v>7.75</v>
       </c>
       <c r="E172">
-        <v>1426.57</v>
+        <v>8258.66</v>
       </c>
       <c r="G172">
-        <v>0.09</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -4126,19 +4130,19 @@
         <v>172</v>
       </c>
       <c r="C173">
-        <v>0.12</v>
+        <v>8326.2900000000009</v>
       </c>
       <c r="D173">
-        <v>0.87</v>
+        <v>7.85</v>
       </c>
       <c r="E173">
-        <v>1425.35</v>
+        <v>8326.2900000000009</v>
       </c>
       <c r="F173">
-        <v>6.9767441860465115E-2</v>
+        <v>0.45614035087719301</v>
       </c>
       <c r="G173">
-        <v>0.15789473684210531</v>
+        <v>0.27906976744186052</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -4149,16 +4153,16 @@
         <v>173</v>
       </c>
       <c r="C174">
-        <v>0.13</v>
+        <v>6732.58</v>
       </c>
       <c r="D174">
-        <v>0.89</v>
+        <v>6.22</v>
       </c>
       <c r="E174">
-        <v>1455.73</v>
+        <v>6732.58</v>
       </c>
       <c r="G174">
-        <v>0.13</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -4169,19 +4173,19 @@
         <v>174</v>
       </c>
       <c r="C175">
-        <v>0.1</v>
+        <v>8131.93</v>
       </c>
       <c r="D175">
-        <v>0.85</v>
+        <v>7.65</v>
       </c>
       <c r="E175">
-        <v>1334.45</v>
+        <v>8131.93</v>
       </c>
       <c r="F175">
-        <v>5.8823529411764712E-2</v>
+        <v>0.375</v>
       </c>
       <c r="G175">
-        <v>0.14285714285714279</v>
+        <v>0.34615384615384609</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -4192,16 +4196,16 @@
         <v>175</v>
       </c>
       <c r="C176">
-        <v>0.1</v>
+        <v>8766.85</v>
       </c>
       <c r="D176">
-        <v>1.01</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="E176">
-        <v>1568.31</v>
+        <v>8766.85</v>
       </c>
       <c r="G176">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -4212,19 +4216,19 @@
         <v>176</v>
       </c>
       <c r="C177">
-        <v>0.15</v>
+        <v>8974.4500000000007</v>
       </c>
       <c r="D177">
-        <v>1.02</v>
+        <v>8.44</v>
       </c>
       <c r="E177">
-        <v>1556.97</v>
+        <v>8974.4500000000007</v>
       </c>
       <c r="F177">
-        <v>0.15686274509803921</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="G177">
-        <v>0.14285714285714279</v>
+        <v>0.32653061224489788</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -4235,16 +4239,16 @@
         <v>177</v>
       </c>
       <c r="C178">
-        <v>0.11</v>
+        <v>8959.94</v>
       </c>
       <c r="D178">
-        <v>1.07</v>
+        <v>8.43</v>
       </c>
       <c r="E178">
-        <v>1551.74</v>
+        <v>8959.94</v>
       </c>
       <c r="G178">
-        <v>0.11</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -4255,19 +4259,19 @@
         <v>178</v>
       </c>
       <c r="C179">
-        <v>0.08</v>
+        <v>8345.3700000000008</v>
       </c>
       <c r="D179">
-        <v>0.87</v>
+        <v>7.76</v>
       </c>
       <c r="E179">
-        <v>1379.07</v>
+        <v>8345.3700000000008</v>
       </c>
       <c r="F179">
-        <v>9.4339622641509441E-2</v>
+        <v>0.42622950819672129</v>
       </c>
       <c r="G179">
-        <v>6.3829787234042548E-2</v>
+        <v>0.4358974358974359</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -4278,16 +4282,16 @@
         <v>179</v>
       </c>
       <c r="C180">
-        <v>0.1</v>
+        <v>7984.76</v>
       </c>
       <c r="D180">
-        <v>1.07</v>
+        <v>7.44</v>
       </c>
       <c r="E180">
-        <v>1590.51</v>
+        <v>7984.76</v>
       </c>
       <c r="G180">
-        <v>0.1</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -4298,19 +4302,19 @@
         <v>180</v>
       </c>
       <c r="C181">
-        <v>0.05</v>
+        <v>8874.24</v>
       </c>
       <c r="D181">
-        <v>0.83</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="E181">
-        <v>1365.65</v>
+        <v>8874.24</v>
       </c>
       <c r="F181">
-        <v>6.8181818181818177E-2</v>
+        <v>0.38</v>
       </c>
       <c r="G181">
-        <v>3.5714285714285712E-2</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -4321,16 +4325,16 @@
         <v>181</v>
       </c>
       <c r="C182">
-        <v>0.09</v>
+        <v>8184.04</v>
       </c>
       <c r="D182">
-        <v>1.21</v>
+        <v>7.64</v>
       </c>
       <c r="E182">
-        <v>1738.73</v>
+        <v>8184.04</v>
       </c>
       <c r="G182">
-        <v>0.09</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -4341,19 +4345,19 @@
         <v>182</v>
       </c>
       <c r="C183">
-        <v>0.08</v>
+        <v>10378.950000000001</v>
       </c>
       <c r="D183">
-        <v>1.22</v>
+        <v>9.82</v>
       </c>
       <c r="E183">
-        <v>1684.79</v>
+        <v>10378.950000000001</v>
       </c>
       <c r="F183">
-        <v>5.8823529411764712E-2</v>
+        <v>0.44897959183673469</v>
       </c>
       <c r="G183">
-        <v>0.1020408163265306</v>
+        <v>0.41176470588235292</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -4364,16 +4368,16 @@
         <v>183</v>
       </c>
       <c r="C184">
-        <v>0.12</v>
+        <v>10364.6</v>
       </c>
       <c r="D184">
-        <v>1.1599999999999999</v>
+        <v>9.81</v>
       </c>
       <c r="E184">
-        <v>1563.4</v>
+        <v>10364.6</v>
       </c>
       <c r="G184">
-        <v>0.12</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -4384,19 +4388,19 @@
         <v>184</v>
       </c>
       <c r="C185">
-        <v>0.14000000000000001</v>
+        <v>9141.1299999999992</v>
       </c>
       <c r="D185">
-        <v>1.21</v>
+        <v>8.58</v>
       </c>
       <c r="E185">
-        <v>1642.84</v>
+        <v>9141.1299999999992</v>
       </c>
       <c r="F185">
-        <v>0.16666666666666671</v>
+        <v>0.4</v>
       </c>
       <c r="G185">
-        <v>0.108695652173913</v>
+        <v>0.34545454545454551</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -4407,16 +4411,16 @@
         <v>185</v>
       </c>
       <c r="C186">
-        <v>0.11</v>
+        <v>7686.05</v>
       </c>
       <c r="D186">
-        <v>1.31</v>
+        <v>7.1</v>
       </c>
       <c r="E186">
-        <v>1767.27</v>
+        <v>7686.05</v>
       </c>
       <c r="G186">
-        <v>0.11</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -4427,19 +4431,19 @@
         <v>186</v>
       </c>
       <c r="C187">
-        <v>0.06</v>
+        <v>8666.4699999999993</v>
       </c>
       <c r="D187">
-        <v>0.73</v>
+        <v>8.16</v>
       </c>
       <c r="E187">
-        <v>1098.6199999999999</v>
+        <v>8666.4699999999993</v>
       </c>
       <c r="F187">
-        <v>4.5454545454545463E-2</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="G187">
-        <v>7.1428571428571425E-2</v>
+        <v>0.39285714285714279</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -4450,16 +4454,16 @@
         <v>187</v>
       </c>
       <c r="C188">
-        <v>0.12</v>
+        <v>9690.2800000000007</v>
       </c>
       <c r="D188">
-        <v>1.59</v>
+        <v>9.17</v>
       </c>
       <c r="E188">
-        <v>1941.66</v>
+        <v>9690.2800000000007</v>
       </c>
       <c r="G188">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -4470,19 +4474,19 @@
         <v>188</v>
       </c>
       <c r="C189">
-        <v>0.08</v>
+        <v>10899.49</v>
       </c>
       <c r="D189">
-        <v>1.1499999999999999</v>
+        <v>10.41</v>
       </c>
       <c r="E189">
-        <v>1579.02</v>
+        <v>10899.49</v>
       </c>
       <c r="F189">
-        <v>0.1276595744680851</v>
+        <v>0.45283018867924529</v>
       </c>
       <c r="G189">
-        <v>3.7735849056603772E-2</v>
+        <v>0.42553191489361702</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -4493,16 +4497,16 @@
         <v>189</v>
       </c>
       <c r="C190">
-        <v>7.0000000000000007E-2</v>
+        <v>10972.08</v>
       </c>
       <c r="D190">
-        <v>1.1000000000000001</v>
+        <v>10.49</v>
       </c>
       <c r="E190">
-        <v>1480.99</v>
+        <v>10972.08</v>
       </c>
       <c r="G190">
-        <v>7.0000000000000007E-2</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -4513,19 +4517,19 @@
         <v>190</v>
       </c>
       <c r="C191">
-        <v>7.0000000000000007E-2</v>
+        <v>9040.52</v>
       </c>
       <c r="D191">
-        <v>1.02</v>
+        <v>8.56</v>
       </c>
       <c r="E191">
-        <v>1430.98</v>
+        <v>9040.52</v>
       </c>
       <c r="F191">
-        <v>0.08</v>
+        <v>0.46938775510204078</v>
       </c>
       <c r="G191">
-        <v>0.06</v>
+        <v>0.52941176470588236</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -4536,16 +4540,16 @@
         <v>191</v>
       </c>
       <c r="C192">
-        <v>0.1</v>
+        <v>9924.9</v>
       </c>
       <c r="D192">
-        <v>1.34</v>
+        <v>9.43</v>
       </c>
       <c r="E192">
-        <v>1782.65</v>
+        <v>9924.9</v>
       </c>
       <c r="G192">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -4556,19 +4560,19 @@
         <v>192</v>
       </c>
       <c r="C193">
-        <v>0.05</v>
+        <v>10407.27</v>
       </c>
       <c r="D193">
-        <v>1.1499999999999999</v>
+        <v>9.92</v>
       </c>
       <c r="E193">
-        <v>1528.98</v>
+        <v>10407.27</v>
       </c>
       <c r="F193">
-        <v>6.1224489795918373E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="G193">
-        <v>3.9215686274509803E-2</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
@@ -4579,16 +4583,16 @@
         <v>193</v>
       </c>
       <c r="C194">
-        <v>0.17</v>
+        <v>10425.200000000001</v>
       </c>
       <c r="D194">
-        <v>1.71</v>
+        <v>9.93</v>
       </c>
       <c r="E194">
-        <v>2169.0300000000002</v>
+        <v>10425.200000000001</v>
       </c>
       <c r="G194">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -4599,19 +4603,19 @@
         <v>194</v>
       </c>
       <c r="C195">
-        <v>0.13</v>
+        <v>11724.34</v>
       </c>
       <c r="D195">
-        <v>1.59</v>
+        <v>11.2</v>
       </c>
       <c r="E195">
-        <v>1962.41</v>
+        <v>11724.34</v>
       </c>
       <c r="F195">
-        <v>0.1081081081081081</v>
+        <v>0.42553191489361702</v>
       </c>
       <c r="G195">
-        <v>0.14285714285714279</v>
+        <v>0.39622641509433959</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
@@ -4622,16 +4626,16 @@
         <v>195</v>
       </c>
       <c r="C196">
-        <v>0.1</v>
+        <v>10228.700000000001</v>
       </c>
       <c r="D196">
-        <v>1.17</v>
+        <v>9.74</v>
       </c>
       <c r="E196">
-        <v>1581.99</v>
+        <v>10228.700000000001</v>
       </c>
       <c r="G196">
-        <v>0.1</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
@@ -4642,19 +4646,19 @@
         <v>196</v>
       </c>
       <c r="C197">
-        <v>0.05</v>
+        <v>11613.59</v>
       </c>
       <c r="D197">
-        <v>1.4</v>
+        <v>11.12</v>
       </c>
       <c r="E197">
-        <v>1820.66</v>
+        <v>11613.59</v>
       </c>
       <c r="F197">
-        <v>7.8431372549019607E-2</v>
+        <v>0.38181818181818178</v>
       </c>
       <c r="G197">
-        <v>2.0408163265306121E-2</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -4665,16 +4669,16 @@
         <v>197</v>
       </c>
       <c r="C198">
-        <v>0.12</v>
+        <v>9522.24</v>
       </c>
       <c r="D198">
-        <v>1.55</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="E198">
-        <v>1938.34</v>
+        <v>9522.24</v>
       </c>
       <c r="G198">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -4685,19 +4689,19 @@
         <v>198</v>
       </c>
       <c r="C199">
-        <v>0.06</v>
+        <v>10370.5</v>
       </c>
       <c r="D199">
-        <v>1.19</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="E199">
-        <v>1565.97</v>
+        <v>10370.5</v>
       </c>
       <c r="F199">
-        <v>7.2727272727272724E-2</v>
+        <v>0.27659574468085107</v>
       </c>
       <c r="G199">
-        <v>4.4444444444444453E-2</v>
+        <v>0.30188679245283018</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -4708,16 +4712,16 @@
         <v>199</v>
       </c>
       <c r="C200">
-        <v>0.1</v>
+        <v>10582.32</v>
       </c>
       <c r="D200">
-        <v>1.46</v>
+        <v>10.09</v>
       </c>
       <c r="E200">
-        <v>1871.1</v>
+        <v>10582.32</v>
       </c>
       <c r="G200">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -4734,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>2.2599999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -4754,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>3.9</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -4777,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>4.1399999999999997</v>
+        <v>42.17</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -4797,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="E204">
-        <v>20.56</v>
+        <v>109.15</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -4817,10 +4821,10 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E205">
-        <v>90.3</v>
+        <v>997.02</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -4834,19 +4838,19 @@
         <v>6</v>
       </c>
       <c r="C206">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>137.75</v>
+        <v>224.31</v>
       </c>
       <c r="F206">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="G206">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -4857,16 +4861,16 @@
         <v>7</v>
       </c>
       <c r="C207">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D207">
         <v>0</v>
       </c>
       <c r="E207">
-        <v>221.86</v>
+        <v>334.64</v>
       </c>
       <c r="G207">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -4877,19 +4881,19 @@
         <v>8</v>
       </c>
       <c r="C208">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>293.76</v>
+        <v>436.22</v>
       </c>
       <c r="F208">
-        <v>0.94545454545454544</v>
+        <v>1</v>
       </c>
       <c r="G208">
-        <v>0.97777777777777775</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -4900,16 +4904,16 @@
         <v>9</v>
       </c>
       <c r="C209">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D209">
         <v>0</v>
       </c>
       <c r="E209">
-        <v>397.41</v>
+        <v>548.4</v>
       </c>
       <c r="G209">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -4920,19 +4924,19 @@
         <v>10</v>
       </c>
       <c r="C210">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E210">
-        <v>505.51</v>
+        <v>712.74</v>
       </c>
       <c r="F210">
-        <v>0.97916666666666663</v>
+        <v>1</v>
       </c>
       <c r="G210">
-        <v>0.98076923076923073</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -4946,10 +4950,10 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>0.04</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E211">
-        <v>637.28</v>
+        <v>951.3</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -4966,10 +4970,10 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>0.06</v>
+        <v>0.96</v>
       </c>
       <c r="E212">
-        <v>785.93</v>
+        <v>1185.08</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -4986,16 +4990,16 @@
         <v>13</v>
       </c>
       <c r="C213">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="E213">
-        <v>977.31</v>
+        <v>1499.74</v>
       </c>
       <c r="G213">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -5009,10 +5013,10 @@
         <v>1</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="E214">
-        <v>1205.8900000000001</v>
+        <v>1794.36</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -5032,10 +5036,10 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>1.78</v>
       </c>
       <c r="E215">
-        <v>1386.67</v>
+        <v>2104.59</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -5049,19 +5053,19 @@
         <v>16</v>
       </c>
       <c r="C216">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>1.1200000000000001</v>
+        <v>1.99</v>
       </c>
       <c r="E216">
-        <v>1725.1</v>
+        <v>2455.6799999999998</v>
       </c>
       <c r="F216">
         <v>1</v>
       </c>
       <c r="G216">
-        <v>0.9821428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -5072,16 +5076,16 @@
         <v>17</v>
       </c>
       <c r="C217">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>1.21</v>
+        <v>2.15</v>
       </c>
       <c r="E217">
-        <v>1989.28</v>
+        <v>2795.49</v>
       </c>
       <c r="G217">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -5092,19 +5096,19 @@
         <v>18</v>
       </c>
       <c r="C218">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>2.0499999999999998</v>
+        <v>2.95</v>
       </c>
       <c r="E218">
-        <v>2381.7800000000002</v>
+        <v>3310.32</v>
       </c>
       <c r="F218">
         <v>1</v>
       </c>
       <c r="G218">
-        <v>0.9821428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -5118,10 +5122,10 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>2.23</v>
+        <v>3.1</v>
       </c>
       <c r="E219">
-        <v>2775.89</v>
+        <v>3737.06</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -5135,16 +5139,16 @@
         <v>20</v>
       </c>
       <c r="C220">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>2.68</v>
+        <v>3.81</v>
       </c>
       <c r="E220">
-        <v>3225.51</v>
+        <v>4242.49</v>
       </c>
       <c r="F220">
-        <v>0.98039215686274506</v>
+        <v>1</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -5158,16 +5162,16 @@
         <v>21</v>
       </c>
       <c r="C221">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>3.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="E221">
-        <v>3668.93</v>
+        <v>4763.9799999999996</v>
       </c>
       <c r="G221">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -5178,19 +5182,19 @@
         <v>22</v>
       </c>
       <c r="C222">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>3.47</v>
+        <v>5</v>
       </c>
       <c r="E222">
-        <v>4137.0600000000004</v>
+        <v>5458.47</v>
       </c>
       <c r="F222">
-        <v>0.98076923076923073</v>
+        <v>1</v>
       </c>
       <c r="G222">
-        <v>0.97916666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -5201,16 +5205,16 @@
         <v>23</v>
       </c>
       <c r="C223">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>4.21</v>
+        <v>5.36</v>
       </c>
       <c r="E223">
-        <v>4681.58</v>
+        <v>5904.38</v>
       </c>
       <c r="G223">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -5224,10 +5228,10 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>4.74</v>
+        <v>6.25</v>
       </c>
       <c r="E224">
-        <v>5230.47</v>
+        <v>6738.21</v>
       </c>
       <c r="F224">
         <v>1</v>
@@ -5244,16 +5248,16 @@
         <v>25</v>
       </c>
       <c r="C225">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <v>5.41</v>
+        <v>6.92</v>
       </c>
       <c r="E225">
-        <v>5966.96</v>
+        <v>7381.27</v>
       </c>
       <c r="G225">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -5267,10 +5271,10 @@
         <v>1</v>
       </c>
       <c r="D226">
-        <v>6.19</v>
+        <v>7.7</v>
       </c>
       <c r="E226">
-        <v>6619.75</v>
+        <v>8230.2000000000007</v>
       </c>
       <c r="F226">
         <v>1</v>
@@ -5290,10 +5294,10 @@
         <v>1</v>
       </c>
       <c r="D227">
-        <v>6.74</v>
+        <v>8.58</v>
       </c>
       <c r="E227">
-        <v>7317.49</v>
+        <v>9094.49</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -5307,19 +5311,19 @@
         <v>28</v>
       </c>
       <c r="C228">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>7.5</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="E228">
-        <v>8050.56</v>
+        <v>9957.3799999999992</v>
       </c>
       <c r="F228">
         <v>1</v>
       </c>
       <c r="G228">
-        <v>0.98148148148148151</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -5330,16 +5334,16 @@
         <v>29</v>
       </c>
       <c r="C229">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>8.4499999999999993</v>
+        <v>10.4</v>
       </c>
       <c r="E229">
-        <v>8920.74</v>
+        <v>10880.2</v>
       </c>
       <c r="G229">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -5350,19 +5354,19 @@
         <v>30</v>
       </c>
       <c r="C230">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D230">
-        <v>9.31</v>
+        <v>11.21</v>
       </c>
       <c r="E230">
-        <v>9771.41</v>
+        <v>11675.12</v>
       </c>
       <c r="F230">
         <v>1</v>
       </c>
       <c r="G230">
-        <v>0.98039215686274506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -5376,10 +5380,10 @@
         <v>1</v>
       </c>
       <c r="D231">
-        <v>10.199999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="E231">
-        <v>10623.06</v>
+        <v>12668.53</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -5396,10 +5400,10 @@
         <v>1</v>
       </c>
       <c r="D232">
-        <v>11.17</v>
+        <v>13.49</v>
       </c>
       <c r="E232">
-        <v>11618.02</v>
+        <v>13973.27</v>
       </c>
       <c r="F232">
         <v>1</v>
@@ -5416,16 +5420,16 @@
         <v>33</v>
       </c>
       <c r="C233">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>12.07</v>
+        <v>14.71</v>
       </c>
       <c r="E233">
-        <v>12627.1</v>
+        <v>15235.17</v>
       </c>
       <c r="G233">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -5439,10 +5443,10 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>13.25</v>
+        <v>15.75</v>
       </c>
       <c r="E234">
-        <v>13756.66</v>
+        <v>16317.03</v>
       </c>
       <c r="F234">
         <v>1</v>
@@ -5459,16 +5463,16 @@
         <v>35</v>
       </c>
       <c r="C235">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>14.33</v>
+        <v>17.46</v>
       </c>
       <c r="E235">
-        <v>14858.69</v>
+        <v>17990.099999999999</v>
       </c>
       <c r="G235">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -5479,16 +5483,16 @@
         <v>36</v>
       </c>
       <c r="C236">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>15.71</v>
+        <v>18.48</v>
       </c>
       <c r="E236">
-        <v>16130.98</v>
+        <v>19007.490000000002</v>
       </c>
       <c r="F236">
-        <v>0.984375</v>
+        <v>1</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -5502,16 +5506,16 @@
         <v>37</v>
       </c>
       <c r="C237">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>17.010000000000002</v>
+        <v>20.07</v>
       </c>
       <c r="E237">
-        <v>17422.48</v>
+        <v>20587</v>
       </c>
       <c r="G237">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -5522,19 +5526,19 @@
         <v>38</v>
       </c>
       <c r="C238">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>18.21</v>
+        <v>21.52</v>
       </c>
       <c r="E238">
-        <v>18705.32</v>
+        <v>22018.99</v>
       </c>
       <c r="F238">
         <v>1</v>
       </c>
       <c r="G238">
-        <v>0.98275862068965514</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
@@ -5548,10 +5552,10 @@
         <v>1</v>
       </c>
       <c r="D239">
-        <v>19.739999999999998</v>
+        <v>23.48</v>
       </c>
       <c r="E239">
-        <v>20225.23</v>
+        <v>24003.71</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -5568,10 +5572,10 @@
         <v>1</v>
       </c>
       <c r="D240">
-        <v>21.19</v>
+        <v>27.65</v>
       </c>
       <c r="E240">
-        <v>21699.4</v>
+        <v>28099.439999999999</v>
       </c>
       <c r="F240">
         <v>1</v>
@@ -5588,16 +5592,16 @@
         <v>41</v>
       </c>
       <c r="C241">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>22.85</v>
+        <v>31.96</v>
       </c>
       <c r="E241">
-        <v>23308.400000000001</v>
+        <v>32463.7</v>
       </c>
       <c r="G241">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
@@ -5611,10 +5615,10 @@
         <v>1</v>
       </c>
       <c r="D242">
-        <v>24.6</v>
+        <v>32.85</v>
       </c>
       <c r="E242">
-        <v>25118.33</v>
+        <v>33372.65</v>
       </c>
       <c r="F242">
         <v>1</v>
@@ -5634,10 +5638,10 @@
         <v>1</v>
       </c>
       <c r="D243">
-        <v>26.59</v>
+        <v>36.61</v>
       </c>
       <c r="E243">
-        <v>27068.240000000002</v>
+        <v>37083.589999999997</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -5654,10 +5658,10 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>28.32</v>
+        <v>35.869999999999997</v>
       </c>
       <c r="E244">
-        <v>28809.69</v>
+        <v>36420.730000000003</v>
       </c>
       <c r="F244">
         <v>1</v>
@@ -5674,16 +5678,16 @@
         <v>45</v>
       </c>
       <c r="C245">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>30.06</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="E245">
-        <v>30577</v>
+        <v>40724.910000000003</v>
       </c>
       <c r="G245">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
@@ -5694,19 +5698,19 @@
         <v>46</v>
       </c>
       <c r="C246">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>32.99</v>
+        <v>42.87</v>
       </c>
       <c r="E246">
-        <v>33510.69</v>
+        <v>43366.54</v>
       </c>
       <c r="F246">
         <v>1</v>
       </c>
       <c r="G246">
-        <v>0.97959183673469385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
@@ -5720,10 +5724,10 @@
         <v>1</v>
       </c>
       <c r="D247">
-        <v>34.61</v>
+        <v>44.45</v>
       </c>
       <c r="E247">
-        <v>35124.57</v>
+        <v>44974.07</v>
       </c>
       <c r="G247">
         <v>1</v>
@@ -5737,16 +5741,16 @@
         <v>48</v>
       </c>
       <c r="C248">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>37.29</v>
+        <v>46.91</v>
       </c>
       <c r="E248">
-        <v>37798.07</v>
+        <v>47411.360000000001</v>
       </c>
       <c r="F248">
-        <v>0.97619047619047616</v>
+        <v>1</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -5763,10 +5767,10 @@
         <v>1</v>
       </c>
       <c r="D249">
-        <v>39.57</v>
+        <v>50.63</v>
       </c>
       <c r="E249">
-        <v>40069.919999999998</v>
+        <v>51081.03</v>
       </c>
       <c r="G249">
         <v>1</v>
@@ -5780,16 +5784,16 @@
         <v>50</v>
       </c>
       <c r="C250">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>41.48</v>
+        <v>51.4</v>
       </c>
       <c r="E250">
-        <v>41955.26</v>
+        <v>51920.09</v>
       </c>
       <c r="F250">
-        <v>0.98039215686274506</v>
+        <v>1</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -5803,16 +5807,16 @@
         <v>51</v>
       </c>
       <c r="C251">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>43.38</v>
+        <v>54.95</v>
       </c>
       <c r="E251">
-        <v>43852.1</v>
+        <v>55439.29</v>
       </c>
       <c r="G251">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
@@ -5826,10 +5830,10 @@
         <v>1</v>
       </c>
       <c r="D252">
-        <v>51.21</v>
+        <v>59.65</v>
       </c>
       <c r="E252">
-        <v>51662.18</v>
+        <v>60124.18</v>
       </c>
       <c r="F252">
         <v>1</v>
@@ -5849,10 +5853,10 @@
         <v>1</v>
       </c>
       <c r="D253">
-        <v>60.18</v>
+        <v>61.9</v>
       </c>
       <c r="E253">
-        <v>60699.73</v>
+        <v>62440.19</v>
       </c>
       <c r="G253">
         <v>1</v>
@@ -5866,19 +5870,19 @@
         <v>54</v>
       </c>
       <c r="C254">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>62.85</v>
+        <v>69.62</v>
       </c>
       <c r="E254">
-        <v>63311.54</v>
+        <v>70171.960000000006</v>
       </c>
       <c r="F254">
         <v>1</v>
       </c>
       <c r="G254">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
@@ -5889,16 +5893,16 @@
         <v>55</v>
       </c>
       <c r="C255">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D255">
-        <v>68.08</v>
+        <v>69.650000000000006</v>
       </c>
       <c r="E255">
-        <v>68541.41</v>
+        <v>70134.080000000002</v>
       </c>
       <c r="G255">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
@@ -5912,10 +5916,10 @@
         <v>1</v>
       </c>
       <c r="D256">
-        <v>71.239999999999995</v>
+        <v>74.14</v>
       </c>
       <c r="E256">
-        <v>71775.91</v>
+        <v>74656.399999999994</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -5935,10 +5939,10 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>75.239999999999995</v>
+        <v>81.23</v>
       </c>
       <c r="E257">
-        <v>75746.66</v>
+        <v>81714.62</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -5955,10 +5959,10 @@
         <v>1</v>
       </c>
       <c r="D258">
-        <v>79.87</v>
+        <v>82.49</v>
       </c>
       <c r="E258">
-        <v>80344.22</v>
+        <v>82996.11</v>
       </c>
       <c r="F258">
         <v>1</v>
@@ -5978,10 +5982,10 @@
         <v>1</v>
       </c>
       <c r="D259">
-        <v>83.13</v>
+        <v>84.77</v>
       </c>
       <c r="E259">
-        <v>83620.240000000005</v>
+        <v>85242.58</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -5998,10 +6002,10 @@
         <v>1</v>
       </c>
       <c r="D260">
-        <v>87.51</v>
+        <v>88.67</v>
       </c>
       <c r="E260">
-        <v>88068.08</v>
+        <v>89209.2</v>
       </c>
       <c r="F260">
         <v>1</v>
@@ -6018,16 +6022,16 @@
         <v>61</v>
       </c>
       <c r="C261">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D261">
-        <v>91.29</v>
+        <v>93.19</v>
       </c>
       <c r="E261">
-        <v>91752.16</v>
+        <v>93690.74</v>
       </c>
       <c r="G261">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -6041,10 +6045,10 @@
         <v>1</v>
       </c>
       <c r="D262">
-        <v>96.12</v>
+        <v>101.13</v>
       </c>
       <c r="E262">
-        <v>96669.53</v>
+        <v>101688.1</v>
       </c>
       <c r="F262">
         <v>1</v>
@@ -6064,10 +6068,10 @@
         <v>1</v>
       </c>
       <c r="D263">
-        <v>100.65</v>
+        <v>105.84</v>
       </c>
       <c r="E263">
-        <v>101126.41</v>
+        <v>106343.38</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -6084,10 +6088,10 @@
         <v>1</v>
       </c>
       <c r="D264">
-        <v>107.17</v>
+        <v>110.58</v>
       </c>
       <c r="E264">
-        <v>107639.84</v>
+        <v>111125.03</v>
       </c>
       <c r="F264">
         <v>1</v>
@@ -6107,10 +6111,10 @@
         <v>1</v>
       </c>
       <c r="D265">
-        <v>110.09</v>
+        <v>115.09</v>
       </c>
       <c r="E265">
-        <v>110590.61</v>
+        <v>115637.22</v>
       </c>
       <c r="G265">
         <v>1</v>
@@ -6127,10 +6131,10 @@
         <v>1</v>
       </c>
       <c r="D266">
-        <v>111.14</v>
+        <v>117.28</v>
       </c>
       <c r="E266">
-        <v>111660.03</v>
+        <v>117835.26</v>
       </c>
       <c r="F266">
         <v>1</v>
@@ -6150,10 +6154,10 @@
         <v>1</v>
       </c>
       <c r="D267">
-        <v>117.09</v>
+        <v>124.93</v>
       </c>
       <c r="E267">
-        <v>117586.57</v>
+        <v>125442.45</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -6170,10 +6174,10 @@
         <v>1</v>
       </c>
       <c r="D268">
-        <v>119.47</v>
+        <v>130.91999999999999</v>
       </c>
       <c r="E268">
-        <v>119992.25</v>
+        <v>131452.26</v>
       </c>
       <c r="F268">
         <v>1</v>
@@ -6190,16 +6194,16 @@
         <v>69</v>
       </c>
       <c r="C269">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>125.26</v>
+        <v>137.76</v>
       </c>
       <c r="E269">
-        <v>125769.4</v>
+        <v>138258.31</v>
       </c>
       <c r="G269">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -6213,10 +6217,10 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>128.88999999999999</v>
+        <v>145.32</v>
       </c>
       <c r="E270">
-        <v>129386.8</v>
+        <v>145804.32999999999</v>
       </c>
       <c r="F270">
         <v>1</v>
@@ -6236,10 +6240,10 @@
         <v>1</v>
       </c>
       <c r="D271">
-        <v>132.63</v>
+        <v>151.35</v>
       </c>
       <c r="E271">
-        <v>133076.43</v>
+        <v>151824.20000000001</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -6253,16 +6257,16 @@
         <v>72</v>
       </c>
       <c r="C272">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D272">
-        <v>136.27000000000001</v>
+        <v>159.93</v>
       </c>
       <c r="E272">
-        <v>136788.31</v>
+        <v>160432.99</v>
       </c>
       <c r="F272">
-        <v>0.95744680851063835</v>
+        <v>1</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -6279,10 +6283,10 @@
         <v>1</v>
       </c>
       <c r="D273">
-        <v>141.68</v>
+        <v>162.4</v>
       </c>
       <c r="E273">
-        <v>142223.59</v>
+        <v>162920.26999999999</v>
       </c>
       <c r="G273">
         <v>1</v>
@@ -6299,10 +6303,10 @@
         <v>1</v>
       </c>
       <c r="D274">
-        <v>145.19</v>
+        <v>170.42</v>
       </c>
       <c r="E274">
-        <v>145722.12</v>
+        <v>170850.17</v>
       </c>
       <c r="F274">
         <v>1</v>
@@ -6322,10 +6326,10 @@
         <v>1</v>
       </c>
       <c r="D275">
-        <v>149.19</v>
+        <v>181</v>
       </c>
       <c r="E275">
-        <v>149684.46</v>
+        <v>181496.23</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -6342,10 +6346,10 @@
         <v>1</v>
       </c>
       <c r="D276">
-        <v>153.93</v>
+        <v>186.5</v>
       </c>
       <c r="E276">
-        <v>154464.6</v>
+        <v>187050.68</v>
       </c>
       <c r="F276">
         <v>1</v>
@@ -6365,10 +6369,10 @@
         <v>1</v>
       </c>
       <c r="D277">
-        <v>159.62</v>
+        <v>204.72</v>
       </c>
       <c r="E277">
-        <v>160108.26999999999</v>
+        <v>205232.6</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -6385,10 +6389,10 @@
         <v>1</v>
       </c>
       <c r="D278">
-        <v>165.21</v>
+        <v>271.45999999999998</v>
       </c>
       <c r="E278">
-        <v>165693.09</v>
+        <v>271961.71000000002</v>
       </c>
       <c r="F278">
         <v>1</v>
@@ -6408,10 +6412,10 @@
         <v>1</v>
       </c>
       <c r="D279">
-        <v>174.62</v>
+        <v>229.78</v>
       </c>
       <c r="E279">
-        <v>175093.5</v>
+        <v>230257.56</v>
       </c>
       <c r="G279">
         <v>1</v>
@@ -6425,19 +6429,19 @@
         <v>80</v>
       </c>
       <c r="C280">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D280">
-        <v>177.99</v>
+        <v>220.97</v>
       </c>
       <c r="E280">
-        <v>178469.09</v>
+        <v>221463.47</v>
       </c>
       <c r="F280">
-        <v>0.98275862068965514</v>
+        <v>1</v>
       </c>
       <c r="G280">
-        <v>0.97619047619047616</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
@@ -6448,16 +6452,16 @@
         <v>81</v>
       </c>
       <c r="C281">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D281">
-        <v>183.61</v>
+        <v>223.71</v>
       </c>
       <c r="E281">
-        <v>184029.16</v>
+        <v>224199.83</v>
       </c>
       <c r="G281">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
@@ -6468,19 +6472,19 @@
         <v>82</v>
       </c>
       <c r="C282">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D282">
-        <v>188.83</v>
+        <v>230.03</v>
       </c>
       <c r="E282">
-        <v>189328.48</v>
+        <v>230513.19</v>
       </c>
       <c r="F282">
-        <v>0.98113207547169812</v>
+        <v>1</v>
       </c>
       <c r="G282">
-        <v>0.97872340425531912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
@@ -6491,16 +6495,16 @@
         <v>83</v>
       </c>
       <c r="C283">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D283">
-        <v>194.41</v>
+        <v>238.85</v>
       </c>
       <c r="E283">
-        <v>194895.08</v>
+        <v>239294.91</v>
       </c>
       <c r="G283">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
@@ -6511,16 +6515,16 @@
         <v>84</v>
       </c>
       <c r="C284">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>203.45</v>
+        <v>243.49</v>
       </c>
       <c r="E284">
-        <v>203914.82</v>
+        <v>244004.54</v>
       </c>
       <c r="F284">
-        <v>0.98076923076923073</v>
+        <v>1</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -6537,10 +6541,10 @@
         <v>1</v>
       </c>
       <c r="D285">
-        <v>208.92</v>
+        <v>255.85</v>
       </c>
       <c r="E285">
-        <v>209431.17</v>
+        <v>256308.48000000001</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -6557,10 +6561,10 @@
         <v>1</v>
       </c>
       <c r="D286">
-        <v>215.42</v>
+        <v>265.91000000000003</v>
       </c>
       <c r="E286">
-        <v>215884.27</v>
+        <v>266431.74</v>
       </c>
       <c r="F286">
         <v>1</v>
@@ -6577,16 +6581,16 @@
         <v>87</v>
       </c>
       <c r="C287">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D287">
-        <v>223.57</v>
+        <v>270.98</v>
       </c>
       <c r="E287">
-        <v>224048.84</v>
+        <v>271462.59999999998</v>
       </c>
       <c r="G287">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
@@ -6597,19 +6601,19 @@
         <v>88</v>
       </c>
       <c r="C288">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D288">
-        <v>233.21</v>
+        <v>287.72000000000003</v>
       </c>
       <c r="E288">
-        <v>233704.63</v>
+        <v>288181.51</v>
       </c>
       <c r="F288">
         <v>1</v>
       </c>
       <c r="G288">
-        <v>0.98148148148148151</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
@@ -6620,16 +6624,16 @@
         <v>89</v>
       </c>
       <c r="C289">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D289">
-        <v>237</v>
+        <v>305.55</v>
       </c>
       <c r="E289">
-        <v>237503.41</v>
+        <v>306001.99</v>
       </c>
       <c r="G289">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
@@ -6640,19 +6644,19 @@
         <v>90</v>
       </c>
       <c r="C290">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D290">
-        <v>246.57</v>
+        <v>317.25</v>
       </c>
       <c r="E290">
-        <v>247014.42</v>
+        <v>317778.07</v>
       </c>
       <c r="F290">
         <v>1</v>
       </c>
       <c r="G290">
-        <v>0.97959183673469385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
@@ -6663,16 +6667,16 @@
         <v>91</v>
       </c>
       <c r="C291">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D291">
-        <v>250.39</v>
+        <v>313.98</v>
       </c>
       <c r="E291">
-        <v>250908.23</v>
+        <v>314509.11</v>
       </c>
       <c r="G291">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
@@ -6683,16 +6687,16 @@
         <v>92</v>
       </c>
       <c r="C292">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D292">
-        <v>258.44</v>
+        <v>328.42</v>
       </c>
       <c r="E292">
-        <v>258945.37</v>
+        <v>328882.34999999998</v>
       </c>
       <c r="F292">
-        <v>0.98181818181818181</v>
+        <v>1</v>
       </c>
       <c r="G292">
         <v>1</v>
@@ -6706,16 +6710,16 @@
         <v>93</v>
       </c>
       <c r="C293">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D293">
-        <v>266.54000000000002</v>
+        <v>343.04</v>
       </c>
       <c r="E293">
-        <v>267046.65000000002</v>
+        <v>343515.72</v>
       </c>
       <c r="G293">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
@@ -6729,10 +6733,10 @@
         <v>1</v>
       </c>
       <c r="D294">
-        <v>277.27</v>
+        <v>352.15</v>
       </c>
       <c r="E294">
-        <v>277804.49</v>
+        <v>352679.94</v>
       </c>
       <c r="F294">
         <v>1</v>
@@ -6749,16 +6753,16 @@
         <v>95</v>
       </c>
       <c r="C295">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D295">
-        <v>309.36</v>
+        <v>370.01</v>
       </c>
       <c r="E295">
-        <v>309866.62</v>
+        <v>370493.4</v>
       </c>
       <c r="G295">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
@@ -6772,10 +6776,10 @@
         <v>1</v>
       </c>
       <c r="D296">
-        <v>297.44</v>
+        <v>387.51</v>
       </c>
       <c r="E296">
-        <v>297992.59999999998</v>
+        <v>388045.78</v>
       </c>
       <c r="F296">
         <v>1</v>
@@ -6795,10 +6799,10 @@
         <v>1</v>
       </c>
       <c r="D297">
-        <v>302.69</v>
+        <v>388.48</v>
       </c>
       <c r="E297">
-        <v>303217.51</v>
+        <v>388998.54</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -6812,19 +6816,19 @@
         <v>98</v>
       </c>
       <c r="C298">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D298">
-        <v>314.64</v>
+        <v>415.07</v>
       </c>
       <c r="E298">
-        <v>315142.48</v>
+        <v>415593.3</v>
       </c>
       <c r="F298">
         <v>1</v>
       </c>
       <c r="G298">
-        <v>0.96721311475409832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
@@ -6835,16 +6839,16 @@
         <v>99</v>
       </c>
       <c r="C299">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D299">
-        <v>354.09</v>
+        <v>419.58</v>
       </c>
       <c r="E299">
-        <v>354597.74</v>
+        <v>420090.49</v>
       </c>
       <c r="G299">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
@@ -6861,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="E300">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="G300">
         <v>1</v>
@@ -6881,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="E301">
-        <v>4.3499999999999996</v>
+        <v>51.27</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -6904,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="E302">
-        <v>5.16</v>
+        <v>140.12</v>
       </c>
       <c r="G302">
         <v>0</v>
@@ -6921,10 +6925,10 @@
         <v>0</v>
       </c>
       <c r="D303">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="E303">
-        <v>120.13</v>
+        <v>2438.81</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -6944,10 +6948,10 @@
         <v>0</v>
       </c>
       <c r="D304">
-        <v>0.01</v>
+        <v>19.29</v>
       </c>
       <c r="E304">
-        <v>553.09</v>
+        <v>19912.03</v>
       </c>
       <c r="G304">
         <v>0</v>
@@ -6964,10 +6968,10 @@
         <v>1</v>
       </c>
       <c r="D305">
-        <v>1.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E305">
-        <v>1144.8900000000001</v>
+        <v>867.59</v>
       </c>
       <c r="F305">
         <v>1</v>
@@ -6984,16 +6988,16 @@
         <v>7</v>
       </c>
       <c r="C306">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D306">
-        <v>1.94</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E306">
-        <v>2252.11</v>
+        <v>1856.74</v>
       </c>
       <c r="G306">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
@@ -7004,19 +7008,19 @@
         <v>8</v>
       </c>
       <c r="C307">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D307">
-        <v>3.22</v>
+        <v>2.73</v>
       </c>
       <c r="E307">
-        <v>3651.49</v>
+        <v>3272.3</v>
       </c>
       <c r="F307">
-        <v>0.93877551020408168</v>
+        <v>1</v>
       </c>
       <c r="G307">
-        <v>0.96078431372549022</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
@@ -7027,16 +7031,16 @@
         <v>9</v>
       </c>
       <c r="C308">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D308">
-        <v>5.29</v>
+        <v>4.17</v>
       </c>
       <c r="E308">
-        <v>5663.55</v>
+        <v>4765.01</v>
       </c>
       <c r="G308">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
@@ -7050,10 +7054,10 @@
         <v>1</v>
       </c>
       <c r="D309">
-        <v>7.86</v>
+        <v>6.55</v>
       </c>
       <c r="E309">
-        <v>8439.8799999999992</v>
+        <v>7063.68</v>
       </c>
       <c r="F309">
         <v>1</v>
@@ -7070,16 +7074,16 @@
         <v>11</v>
       </c>
       <c r="C310">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D310">
-        <v>11.8</v>
+        <v>10.39</v>
       </c>
       <c r="E310">
-        <v>12222.45</v>
+        <v>10874.43</v>
       </c>
       <c r="G310">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
@@ -7090,19 +7094,19 @@
         <v>12</v>
       </c>
       <c r="C311">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D311">
-        <v>17</v>
+        <v>15.67</v>
       </c>
       <c r="E311">
-        <v>17527.57</v>
+        <v>16173.07</v>
       </c>
       <c r="F311">
-        <v>0.98076923076923073</v>
+        <v>1</v>
       </c>
       <c r="G311">
-        <v>0.95833333333333337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
@@ -7113,16 +7117,16 @@
         <v>13</v>
       </c>
       <c r="C312">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D312">
-        <v>23.74</v>
+        <v>22.95</v>
       </c>
       <c r="E312">
-        <v>24173.02</v>
+        <v>23476.880000000001</v>
       </c>
       <c r="G312">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
@@ -7133,19 +7137,19 @@
         <v>14</v>
       </c>
       <c r="C313">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D313">
-        <v>34.94</v>
+        <v>41.95</v>
       </c>
       <c r="E313">
-        <v>35435.22</v>
+        <v>42421.21</v>
       </c>
       <c r="F313">
         <v>1</v>
       </c>
       <c r="G313">
-        <v>0.97959183673469385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
@@ -7156,16 +7160,16 @@
         <v>15</v>
       </c>
       <c r="C314">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D314">
-        <v>47.66</v>
+        <v>52.73</v>
       </c>
       <c r="E314">
-        <v>48122.01</v>
+        <v>53266.39</v>
       </c>
       <c r="G314">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
@@ -7176,19 +7180,19 @@
         <v>16</v>
       </c>
       <c r="C315">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D315">
-        <v>62.63</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="E315">
-        <v>63094.62</v>
+        <v>67375.460000000006</v>
       </c>
       <c r="F315">
         <v>1</v>
       </c>
       <c r="G315">
-        <v>0.98113207547169812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
@@ -7199,16 +7203,16 @@
         <v>17</v>
       </c>
       <c r="C316">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D316">
-        <v>82.1</v>
+        <v>96.47</v>
       </c>
       <c r="E316">
-        <v>82608.94</v>
+        <v>96973.8</v>
       </c>
       <c r="G316">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
@@ -7222,10 +7226,10 @@
         <v>1</v>
       </c>
       <c r="D317">
-        <v>103.08</v>
+        <v>120.94</v>
       </c>
       <c r="E317">
-        <v>103544.83</v>
+        <v>121423.52</v>
       </c>
       <c r="F317">
         <v>1</v>
@@ -7242,16 +7246,16 @@
         <v>19</v>
       </c>
       <c r="C318">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D318">
-        <v>127.61</v>
+        <v>158.1</v>
       </c>
       <c r="E318">
-        <v>128127.2</v>
+        <v>158572.64000000001</v>
       </c>
       <c r="G318">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
@@ -7265,10 +7269,10 @@
         <v>1</v>
       </c>
       <c r="D319">
-        <v>156.33000000000001</v>
+        <v>267.81</v>
       </c>
       <c r="E319">
-        <v>156845.41</v>
+        <v>268304.11</v>
       </c>
       <c r="F319">
         <v>1</v>
@@ -7288,10 +7292,10 @@
         <v>1</v>
       </c>
       <c r="D320">
-        <v>194.01</v>
+        <v>249.91</v>
       </c>
       <c r="E320">
-        <v>194513.45</v>
+        <v>250413.45</v>
       </c>
       <c r="G320">
         <v>1</v>
@@ -7305,19 +7309,19 @@
         <v>22</v>
       </c>
       <c r="C321">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D321">
-        <v>235.9</v>
+        <v>334.64</v>
       </c>
       <c r="E321">
-        <v>236393.71</v>
+        <v>335135.71999999997</v>
       </c>
       <c r="F321">
-        <v>0.98181818181818181</v>
+        <v>1</v>
       </c>
       <c r="G321">
-        <v>0.93333333333333335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.3">
@@ -7331,10 +7335,10 @@
         <v>1</v>
       </c>
       <c r="D322">
-        <v>288</v>
+        <v>502.98</v>
       </c>
       <c r="E322">
-        <v>288522.07</v>
+        <v>503510.94</v>
       </c>
       <c r="G322">
         <v>1</v>
@@ -7348,19 +7352,19 @@
         <v>24</v>
       </c>
       <c r="C323">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D323">
-        <v>345.99</v>
+        <v>511.34</v>
       </c>
       <c r="E323">
-        <v>346513.89</v>
+        <v>511844.04</v>
       </c>
       <c r="F323">
-        <v>0.98181818181818181</v>
+        <v>1</v>
       </c>
       <c r="G323">
-        <v>0.97777777777777775</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.3">
@@ -7371,16 +7375,16 @@
         <v>25</v>
       </c>
       <c r="C324">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D324">
-        <v>414.35</v>
+        <v>493.69</v>
       </c>
       <c r="E324">
-        <v>414842.61</v>
+        <v>494179.59</v>
       </c>
       <c r="G324">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.3">
@@ -7394,10 +7398,10 @@
         <v>1</v>
       </c>
       <c r="D325">
-        <v>508.73</v>
+        <v>642.26</v>
       </c>
       <c r="E325">
-        <v>509203.77</v>
+        <v>642752.15</v>
       </c>
       <c r="F325">
         <v>1</v>
@@ -7414,16 +7418,16 @@
         <v>27</v>
       </c>
       <c r="C326">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D326">
-        <v>582.65</v>
+        <v>940.39</v>
       </c>
       <c r="E326">
-        <v>583118.30000000005</v>
+        <v>940905.68</v>
       </c>
       <c r="G326">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
@@ -7434,16 +7438,16 @@
         <v>28</v>
       </c>
       <c r="C327">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D327">
-        <v>687.31</v>
+        <v>1209.07</v>
       </c>
       <c r="E327">
-        <v>687821.15</v>
+        <v>1209585.4099999999</v>
       </c>
       <c r="F327">
-        <v>0.93333333333333335</v>
+        <v>1</v>
       </c>
       <c r="G327">
         <v>1</v>
@@ -7457,16 +7461,16 @@
         <v>29</v>
       </c>
       <c r="C328">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D328">
-        <v>796.75</v>
+        <v>1305.97</v>
       </c>
       <c r="E328">
-        <v>797274.99</v>
+        <v>1306447.23</v>
       </c>
       <c r="G328">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
@@ -7477,19 +7481,19 @@
         <v>30</v>
       </c>
       <c r="C329">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D329">
-        <v>924.29</v>
+        <v>1372.71</v>
       </c>
       <c r="E329">
-        <v>924795.84</v>
+        <v>1373131.11</v>
       </c>
       <c r="F329">
         <v>1</v>
       </c>
       <c r="G329">
-        <v>0.97959183673469385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
@@ -7500,16 +7504,16 @@
         <v>31</v>
       </c>
       <c r="C330">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D330">
-        <v>1069.79</v>
+        <v>1534.22</v>
       </c>
       <c r="E330">
-        <v>1070279.08</v>
+        <v>1534714.28</v>
       </c>
       <c r="G330">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
@@ -7520,19 +7524,19 @@
         <v>32</v>
       </c>
       <c r="C331">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D331">
-        <v>1232.6500000000001</v>
+        <v>1842.5</v>
       </c>
       <c r="E331">
-        <v>1233161.01</v>
+        <v>1843002.77</v>
       </c>
       <c r="F331">
         <v>1</v>
       </c>
       <c r="G331">
-        <v>0.98148148148148151</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
@@ -7546,10 +7550,10 @@
         <v>1</v>
       </c>
       <c r="D332">
-        <v>1433.56</v>
+        <v>2058.19</v>
       </c>
       <c r="E332">
-        <v>1434057.24</v>
+        <v>2058706.96</v>
       </c>
       <c r="G332">
         <v>1</v>
@@ -7566,10 +7570,10 @@
         <v>1</v>
       </c>
       <c r="D333">
-        <v>1626.01</v>
+        <v>2244.4899999999998</v>
       </c>
       <c r="E333">
-        <v>1626532.41</v>
+        <v>2244989.34</v>
       </c>
       <c r="F333">
         <v>1</v>
@@ -7589,10 +7593,10 @@
         <v>1</v>
       </c>
       <c r="D334">
-        <v>1837.36</v>
+        <v>2785.35</v>
       </c>
       <c r="E334">
-        <v>1837830.15</v>
+        <v>2785834.46</v>
       </c>
       <c r="G334">
         <v>1</v>
@@ -7609,10 +7613,10 @@
         <v>1</v>
       </c>
       <c r="D335">
-        <v>2069.61</v>
+        <v>3244.09</v>
       </c>
       <c r="E335">
-        <v>2070068.22</v>
+        <v>3244575.48</v>
       </c>
       <c r="F335">
         <v>1</v>
@@ -7629,16 +7633,16 @@
         <v>37</v>
       </c>
       <c r="C336">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D336">
-        <v>2311.1799999999998</v>
+        <v>3136.92</v>
       </c>
       <c r="E336">
-        <v>2311741.9700000002</v>
+        <v>3137413.16</v>
       </c>
       <c r="G336">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
@@ -7652,10 +7656,10 @@
         <v>1</v>
       </c>
       <c r="D337">
-        <v>2594.3000000000002</v>
+        <v>3483.67</v>
       </c>
       <c r="E337">
-        <v>2594881.34</v>
+        <v>3484194.06</v>
       </c>
       <c r="F337">
         <v>1</v>
@@ -7675,10 +7679,10 @@
         <v>1</v>
       </c>
       <c r="D338">
-        <v>2880.36</v>
+        <v>3802.88</v>
       </c>
       <c r="E338">
-        <v>2880816.9</v>
+        <v>3803375.24</v>
       </c>
       <c r="G338">
         <v>1</v>
@@ -7695,10 +7699,10 @@
         <v>1</v>
       </c>
       <c r="D339">
-        <v>3189.46</v>
+        <v>4191.32</v>
       </c>
       <c r="E339">
-        <v>3189918.95</v>
+        <v>4191781</v>
       </c>
       <c r="F339">
         <v>1</v>
@@ -7715,16 +7719,16 @@
         <v>41</v>
       </c>
       <c r="C340">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D340">
-        <v>3539.33</v>
+        <v>4495.79</v>
       </c>
       <c r="E340">
-        <v>3539849.22</v>
+        <v>4496303.7699999996</v>
       </c>
       <c r="G340">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
@@ -7735,19 +7739,19 @@
         <v>42</v>
       </c>
       <c r="C341">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D341">
-        <v>3897.43</v>
+        <v>4944</v>
       </c>
       <c r="E341">
-        <v>3897970.68</v>
+        <v>4944505.49</v>
       </c>
       <c r="F341">
         <v>1</v>
       </c>
       <c r="G341">
-        <v>0.97872340425531912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
@@ -7761,10 +7765,10 @@
         <v>1</v>
       </c>
       <c r="D342">
-        <v>4299.83</v>
+        <v>5628.79</v>
       </c>
       <c r="E342">
-        <v>4300331.3499999996</v>
+        <v>5629273.6200000001</v>
       </c>
       <c r="G342">
         <v>1</v>
@@ -7781,10 +7785,10 @@
         <v>1</v>
       </c>
       <c r="D343">
-        <v>4704.1400000000003</v>
+        <v>6216.99</v>
       </c>
       <c r="E343">
-        <v>4704618.2699999996</v>
+        <v>6217461.2400000002</v>
       </c>
       <c r="F343">
         <v>1</v>
@@ -7801,16 +7805,16 @@
         <v>45</v>
       </c>
       <c r="C344">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D344">
-        <v>5201.6899999999996</v>
+        <v>6946.83</v>
       </c>
       <c r="E344">
-        <v>5202215</v>
+        <v>6947339.1299999999</v>
       </c>
       <c r="G344">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.3">
@@ -7821,19 +7825,19 @@
         <v>46</v>
       </c>
       <c r="C345">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D345">
-        <v>5733.8</v>
+        <v>7627.06</v>
       </c>
       <c r="E345">
-        <v>5734245.6299999999</v>
+        <v>7627597.5</v>
       </c>
       <c r="F345">
-        <v>0.98148148148148151</v>
+        <v>1</v>
       </c>
       <c r="G345">
-        <v>0.97826086956521741</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.3">
@@ -7844,16 +7848,16 @@
         <v>47</v>
       </c>
       <c r="C346">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D346">
-        <v>6329.88</v>
+        <v>8573.41</v>
       </c>
       <c r="E346">
-        <v>6330391.9900000002</v>
+        <v>8573913.5099999998</v>
       </c>
       <c r="G346">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.3">
@@ -7867,10 +7871,10 @@
         <v>1</v>
       </c>
       <c r="D347">
-        <v>6747.97</v>
+        <v>9047.2900000000009</v>
       </c>
       <c r="E347">
-        <v>6748450.7300000004</v>
+        <v>9047823.8100000005</v>
       </c>
       <c r="F347">
         <v>1</v>
@@ -7890,18 +7894,18 @@
         <v>1</v>
       </c>
       <c r="D348">
-        <v>7327.84</v>
+        <v>9922.2199999999993</v>
       </c>
       <c r="E348">
-        <v>7328342.3600000003</v>
+        <v>9922736.3699999992</v>
       </c>
       <c r="G348">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G350">
-    <sortCondition ref="A1:A350"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G349">
+    <sortCondition ref="A1:A349"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
